--- a/storage/app/database_data/nutrient_losses/Нутриенты таблица на рус - потери.xlsx
+++ b/storage/app/database_data/nutrient_losses/Нутриенты таблица на рус - потери.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="147">
   <si>
     <t>Кальций, Са</t>
   </si>
@@ -259,19 +259,7 @@
     <t>Категория</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>EGG</t>
-  </si>
-  <si>
     <t>Молоко коровье</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
   <si>
     <t>Яблоко сырое целое</t>
@@ -304,16 +292,10 @@
     <t>Фрукты свежие :</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>Фрукты свежие:</t>
   </si>
   <si>
     <t>Фрукты сушеные:</t>
-  </si>
-  <si>
-    <t>DFR</t>
   </si>
   <si>
     <t>Сливы сушеные (чернослив)</t>
@@ -439,12 +421,6 @@
     <t>Овощи замороженные:</t>
   </si>
   <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
     <t>Фундук сырой цельный</t>
   </si>
   <si>
@@ -479,15 +455,6 @@
   </si>
   <si>
     <t>Орехи (любые):</t>
-  </si>
-  <si>
-    <t>FSH</t>
-  </si>
-  <si>
-    <t>DGH</t>
-  </si>
-  <si>
-    <t>POR</t>
   </si>
 </sst>
 </file>
@@ -664,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -799,12 +766,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -910,9 +890,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1011,9 +988,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1320,8 +1299,8 @@
   <dimension ref="A1:AG265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1510,8 +1489,8 @@
       <c r="A5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>81</v>
+      <c r="B5" s="37">
+        <v>47</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>36</v>
@@ -1607,8 +1586,8 @@
       <c r="A6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>82</v>
+      <c r="B6" s="38">
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>36</v>
@@ -1704,8 +1683,8 @@
       <c r="A7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>82</v>
+      <c r="B7" s="38">
+        <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>40</v>
@@ -1801,8 +1780,8 @@
       <c r="A8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>82</v>
+      <c r="B8" s="38">
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>39</v>
@@ -1896,10 +1875,10 @@
     </row>
     <row r="9" spans="1:33" ht="15.75">
       <c r="A9" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="38">
+        <v>12</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>39</v>
@@ -1993,10 +1972,10 @@
     </row>
     <row r="10" spans="1:33" ht="15.75">
       <c r="A10" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="38">
+        <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>41</v>
@@ -2092,8 +2071,8 @@
       <c r="A11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>85</v>
+      <c r="B11" s="39">
+        <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
@@ -2187,7 +2166,7 @@
     </row>
     <row r="12" spans="1:33" ht="15.75">
       <c r="A12" s="35"/>
-      <c r="B12" s="38"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2224,8 +2203,8 @@
       <c r="A13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>85</v>
+      <c r="B13" s="38">
+        <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>36</v>
@@ -2321,8 +2300,8 @@
       <c r="A14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>85</v>
+      <c r="B14" s="38">
+        <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>44</v>
@@ -2418,8 +2397,8 @@
       <c r="A15" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>85</v>
+      <c r="B15" s="38">
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>41</v>
@@ -2515,8 +2494,8 @@
       <c r="A16" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>85</v>
+      <c r="B16" s="38">
+        <v>29</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>40</v>
@@ -2612,8 +2591,8 @@
       <c r="A17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>85</v>
+      <c r="B17" s="38">
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>44</v>
@@ -2709,8 +2688,8 @@
       <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>85</v>
+      <c r="B18" s="40">
+        <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>36</v>
@@ -2806,8 +2785,8 @@
       <c r="A19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>85</v>
+      <c r="B19" s="38">
+        <v>29</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>41</v>
@@ -2903,8 +2882,8 @@
       <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>85</v>
+      <c r="B20" s="40">
+        <v>29</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>44</v>
@@ -3000,8 +2979,8 @@
       <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="41" t="s">
-        <v>85</v>
+      <c r="B21" s="40">
+        <v>29</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>36</v>
@@ -3097,19 +3076,19 @@
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>85</v>
+      <c r="B22" s="42">
+        <v>29</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="42">
-        <v>5</v>
-      </c>
-      <c r="E22" s="42">
-        <v>5</v>
-      </c>
-      <c r="F22" s="42"/>
+      <c r="D22" s="41">
+        <v>5</v>
+      </c>
+      <c r="E22" s="41">
+        <v>5</v>
+      </c>
+      <c r="F22" s="41"/>
       <c r="G22" s="20">
         <v>10</v>
       </c>
@@ -3194,19 +3173,19 @@
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>85</v>
+      <c r="B23" s="42">
+        <v>29</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="42">
-        <v>5</v>
-      </c>
-      <c r="E23" s="42">
-        <v>25</v>
-      </c>
-      <c r="F23" s="42"/>
+      <c r="D23" s="41">
+        <v>5</v>
+      </c>
+      <c r="E23" s="41">
+        <v>25</v>
+      </c>
+      <c r="F23" s="41"/>
       <c r="G23" s="20">
         <v>0</v>
       </c>
@@ -3291,19 +3270,19 @@
       <c r="A24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>85</v>
+      <c r="B24" s="42">
+        <v>29</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="42">
-        <v>10</v>
-      </c>
-      <c r="E24" s="42">
+      <c r="D24" s="41">
+        <v>10</v>
+      </c>
+      <c r="E24" s="41">
         <v>30</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20">
         <v>0</v>
       </c>
@@ -3388,19 +3367,19 @@
       <c r="A25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>85</v>
+      <c r="B25" s="42">
+        <v>29</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="42">
-        <v>10</v>
-      </c>
-      <c r="E25" s="42">
+      <c r="D25" s="41">
+        <v>10</v>
+      </c>
+      <c r="E25" s="41">
         <v>30</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20">
         <v>20</v>
       </c>
@@ -3485,19 +3464,19 @@
       <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>85</v>
+      <c r="B26" s="42">
+        <v>29</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="42">
-        <v>10</v>
-      </c>
-      <c r="E26" s="42">
+      <c r="D26" s="41">
+        <v>10</v>
+      </c>
+      <c r="E26" s="41">
         <v>30</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="20">
         <v>0</v>
       </c>
@@ -3582,19 +3561,19 @@
       <c r="A27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>85</v>
+      <c r="B27" s="42">
+        <v>29</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="42">
-        <v>10</v>
-      </c>
-      <c r="E27" s="42">
-        <v>25</v>
-      </c>
-      <c r="F27" s="42"/>
+      <c r="D27" s="41">
+        <v>10</v>
+      </c>
+      <c r="E27" s="41">
+        <v>25</v>
+      </c>
+      <c r="F27" s="41"/>
       <c r="G27" s="20">
         <v>0</v>
       </c>
@@ -3679,19 +3658,19 @@
       <c r="A28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>85</v>
+      <c r="B28" s="42">
+        <v>29</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="42">
-        <v>10</v>
-      </c>
-      <c r="E28" s="42">
-        <v>25</v>
-      </c>
-      <c r="F28" s="42"/>
+      <c r="D28" s="41">
+        <v>10</v>
+      </c>
+      <c r="E28" s="41">
+        <v>25</v>
+      </c>
+      <c r="F28" s="41"/>
       <c r="G28" s="20">
         <v>20</v>
       </c>
@@ -3776,19 +3755,19 @@
       <c r="A29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>85</v>
+      <c r="B29" s="42">
+        <v>29</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="42">
-        <v>10</v>
-      </c>
-      <c r="E29" s="42">
-        <v>25</v>
-      </c>
-      <c r="F29" s="42"/>
+      <c r="D29" s="41">
+        <v>10</v>
+      </c>
+      <c r="E29" s="41">
+        <v>25</v>
+      </c>
+      <c r="F29" s="41"/>
       <c r="G29" s="20">
         <v>0</v>
       </c>
@@ -3873,19 +3852,19 @@
       <c r="A30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>85</v>
+      <c r="B30" s="42">
+        <v>29</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="42">
-        <v>10</v>
-      </c>
-      <c r="E30" s="42">
-        <v>25</v>
-      </c>
-      <c r="F30" s="42"/>
+      <c r="D30" s="41">
+        <v>10</v>
+      </c>
+      <c r="E30" s="41">
+        <v>25</v>
+      </c>
+      <c r="F30" s="41"/>
       <c r="G30" s="20">
         <v>20</v>
       </c>
@@ -3970,19 +3949,19 @@
       <c r="A31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>85</v>
+      <c r="B31" s="42">
+        <v>29</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="42">
-        <v>10</v>
-      </c>
-      <c r="E31" s="42">
-        <v>25</v>
-      </c>
-      <c r="F31" s="42"/>
+      <c r="D31" s="41">
+        <v>10</v>
+      </c>
+      <c r="E31" s="41">
+        <v>25</v>
+      </c>
+      <c r="F31" s="41"/>
       <c r="G31" s="20">
         <v>0</v>
       </c>
@@ -4067,19 +4046,19 @@
       <c r="A32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>85</v>
+      <c r="B32" s="42">
+        <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="42">
-        <v>10</v>
-      </c>
-      <c r="E32" s="42">
-        <v>25</v>
-      </c>
-      <c r="F32" s="42"/>
+      <c r="D32" s="41">
+        <v>10</v>
+      </c>
+      <c r="E32" s="41">
+        <v>25</v>
+      </c>
+      <c r="F32" s="41"/>
       <c r="G32" s="20">
         <v>20</v>
       </c>
@@ -4164,19 +4143,19 @@
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>85</v>
+      <c r="B33" s="42">
+        <v>29</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="42">
-        <v>10</v>
-      </c>
-      <c r="E33" s="42">
-        <v>25</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="D33" s="41">
+        <v>10</v>
+      </c>
+      <c r="E33" s="41">
+        <v>25</v>
+      </c>
+      <c r="F33" s="41"/>
       <c r="G33" s="20">
         <v>0</v>
       </c>
@@ -4261,8 +4240,8 @@
       <c r="A34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>85</v>
+      <c r="B34" s="42">
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>58</v>
@@ -4356,7 +4335,7 @@
     </row>
     <row r="35" spans="1:33" ht="15.75">
       <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="12"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4390,107 +4369,107 @@
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="1:33" ht="15.75">
-      <c r="A36" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>96</v>
-      </c>
+      <c r="A36" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="38"/>
       <c r="C36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="47">
-        <v>5</v>
-      </c>
-      <c r="E36" s="47">
-        <v>10</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49">
+      <c r="D36" s="46">
+        <v>5</v>
+      </c>
+      <c r="E36" s="46">
+        <v>10</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48">
         <v>95</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="48">
         <v>100</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="48">
         <v>100</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="48">
         <v>100</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="48">
         <v>90</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="48">
         <v>100</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="48">
         <v>100</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36" s="48">
         <v>90</v>
       </c>
-      <c r="O36" s="49">
+      <c r="O36" s="48">
         <v>80</v>
       </c>
-      <c r="P36" s="49">
+      <c r="P36" s="48">
         <v>80</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="48">
         <v>95</v>
       </c>
-      <c r="R36" s="49">
+      <c r="R36" s="48">
         <v>90</v>
       </c>
-      <c r="S36" s="49">
+      <c r="S36" s="48">
         <v>95</v>
       </c>
-      <c r="T36" s="49">
+      <c r="T36" s="48">
         <v>60</v>
       </c>
-      <c r="U36" s="49">
+      <c r="U36" s="48">
         <v>60</v>
       </c>
-      <c r="V36" s="49">
+      <c r="V36" s="48">
         <v>60</v>
       </c>
-      <c r="W36" s="49">
+      <c r="W36" s="48">
         <v>100</v>
       </c>
-      <c r="X36" s="49">
+      <c r="X36" s="48">
         <v>100</v>
       </c>
-      <c r="Y36" s="49">
+      <c r="Y36" s="48">
         <v>85</v>
       </c>
-      <c r="Z36" s="49">
+      <c r="Z36" s="48">
         <v>85</v>
       </c>
-      <c r="AA36" s="49">
+      <c r="AA36" s="48">
         <v>100</v>
       </c>
-      <c r="AB36" s="49">
+      <c r="AB36" s="48">
         <v>85</v>
       </c>
-      <c r="AC36" s="49">
+      <c r="AC36" s="48">
         <v>85</v>
       </c>
-      <c r="AD36" s="49">
+      <c r="AD36" s="48">
         <v>85</v>
       </c>
-      <c r="AE36" s="49">
+      <c r="AE36" s="48">
         <v>85</v>
       </c>
-      <c r="AF36" s="49">
+      <c r="AF36" s="48">
         <v>85</v>
       </c>
       <c r="AG36" s="9"/>
     </row>
     <row r="37" spans="1:33" ht="15.75">
-      <c r="A37" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="39"/>
+      <c r="A37" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="38">
+        <v>16</v>
+      </c>
       <c r="C37" s="12"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -4524,10 +4503,12 @@
       <c r="AG37" s="9"/>
     </row>
     <row r="38" spans="1:33" ht="15.75">
-      <c r="A38" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="39"/>
+      <c r="A38" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="38">
+        <v>16</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4561,10 +4542,12 @@
       <c r="AG38" s="9"/>
     </row>
     <row r="39" spans="1:33" ht="15.75">
-      <c r="A39" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="39"/>
+      <c r="A39" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="38">
+        <v>16</v>
+      </c>
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4598,10 +4581,12 @@
       <c r="AG39" s="9"/>
     </row>
     <row r="40" spans="1:33" ht="15.75">
-      <c r="A40" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="39"/>
+      <c r="A40" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="38">
+        <v>16</v>
+      </c>
       <c r="C40" s="12"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4635,10 +4620,12 @@
       <c r="AG40" s="9"/>
     </row>
     <row r="41" spans="1:33" ht="15.75">
-      <c r="A41" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="39"/>
+      <c r="A41" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="38">
+        <v>16</v>
+      </c>
       <c r="C41" s="12"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4672,10 +4659,12 @@
       <c r="AG41" s="9"/>
     </row>
     <row r="42" spans="1:33" ht="15.75">
-      <c r="A42" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="39"/>
+      <c r="A42" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="38">
+        <v>16</v>
+      </c>
       <c r="C42" s="12"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4709,10 +4698,12 @@
       <c r="AG42" s="9"/>
     </row>
     <row r="43" spans="1:33" ht="15.75">
-      <c r="A43" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="39"/>
+      <c r="A43" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="38">
+        <v>16</v>
+      </c>
       <c r="C43" s="12"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4746,10 +4737,12 @@
       <c r="AG43" s="9"/>
     </row>
     <row r="44" spans="1:33" ht="15.75">
-      <c r="A44" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="37"/>
+      <c r="A44" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="38">
+        <v>16</v>
+      </c>
       <c r="C44" s="12"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4783,10 +4776,12 @@
       <c r="AG44" s="9"/>
     </row>
     <row r="45" spans="1:33" ht="15.75">
-      <c r="A45" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="37"/>
+      <c r="A45" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="38">
+        <v>16</v>
+      </c>
       <c r="C45" s="12"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -4820,11 +4815,11 @@
       <c r="AG45" s="9"/>
     </row>
     <row r="46" spans="1:33" s="16" customFormat="1" ht="15.75">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>96</v>
+      <c r="B46" s="76">
+        <v>18</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>36</v>
@@ -4917,107 +4912,107 @@
       <c r="AG46" s="21"/>
     </row>
     <row r="47" spans="1:33" ht="15.75">
-      <c r="A47" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>96</v>
-      </c>
+      <c r="A47" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="46"/>
       <c r="C47" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="47">
-        <v>5</v>
-      </c>
-      <c r="E47" s="47">
-        <v>10</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49">
-        <v>5</v>
-      </c>
-      <c r="H47" s="49">
-        <v>0</v>
-      </c>
-      <c r="I47" s="49">
-        <v>0</v>
-      </c>
-      <c r="J47" s="49">
-        <v>0</v>
-      </c>
-      <c r="K47" s="49">
-        <v>10</v>
-      </c>
-      <c r="L47" s="49">
-        <v>0</v>
-      </c>
-      <c r="M47" s="49">
-        <v>0</v>
-      </c>
-      <c r="N47" s="49">
-        <v>10</v>
-      </c>
-      <c r="O47" s="49">
+      <c r="D47" s="46">
+        <v>5</v>
+      </c>
+      <c r="E47" s="46">
+        <v>10</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48">
+        <v>5</v>
+      </c>
+      <c r="H47" s="48">
+        <v>0</v>
+      </c>
+      <c r="I47" s="48">
+        <v>0</v>
+      </c>
+      <c r="J47" s="48">
+        <v>0</v>
+      </c>
+      <c r="K47" s="48">
+        <v>10</v>
+      </c>
+      <c r="L47" s="48">
+        <v>0</v>
+      </c>
+      <c r="M47" s="48">
+        <v>0</v>
+      </c>
+      <c r="N47" s="48">
+        <v>10</v>
+      </c>
+      <c r="O47" s="48">
         <v>30</v>
       </c>
-      <c r="P47" s="49">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="49">
-        <v>10</v>
-      </c>
-      <c r="R47" s="49">
-        <v>10</v>
-      </c>
-      <c r="S47" s="49">
-        <v>10</v>
-      </c>
-      <c r="T47" s="49">
+      <c r="P47" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="48">
+        <v>10</v>
+      </c>
+      <c r="R47" s="48">
+        <v>10</v>
+      </c>
+      <c r="S47" s="48">
+        <v>10</v>
+      </c>
+      <c r="T47" s="48">
         <v>50</v>
       </c>
-      <c r="U47" s="49">
+      <c r="U47" s="48">
         <v>50</v>
       </c>
-      <c r="V47" s="49">
+      <c r="V47" s="48">
         <v>50</v>
       </c>
-      <c r="W47" s="49">
-        <v>0</v>
-      </c>
-      <c r="X47" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="49">
-        <v>25</v>
-      </c>
-      <c r="Z47" s="49">
-        <v>25</v>
-      </c>
-      <c r="AA47" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="49">
-        <v>25</v>
-      </c>
-      <c r="AC47" s="49">
-        <v>25</v>
-      </c>
-      <c r="AD47" s="49">
-        <v>25</v>
-      </c>
-      <c r="AE47" s="49">
-        <v>25</v>
-      </c>
-      <c r="AF47" s="49">
+      <c r="W47" s="48">
+        <v>0</v>
+      </c>
+      <c r="X47" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="48">
+        <v>25</v>
+      </c>
+      <c r="Z47" s="48">
+        <v>25</v>
+      </c>
+      <c r="AA47" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="48">
+        <v>25</v>
+      </c>
+      <c r="AC47" s="48">
+        <v>25</v>
+      </c>
+      <c r="AD47" s="48">
+        <v>25</v>
+      </c>
+      <c r="AE47" s="48">
+        <v>25</v>
+      </c>
+      <c r="AF47" s="48">
         <v>25</v>
       </c>
       <c r="AG47" s="9"/>
     </row>
     <row r="48" spans="1:33" ht="15">
-      <c r="A48" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="12"/>
+      <c r="A48" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="46">
+        <v>16</v>
+      </c>
       <c r="C48" s="12"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -5051,10 +5046,12 @@
       <c r="AG48" s="9"/>
     </row>
     <row r="49" spans="1:33" ht="15">
-      <c r="A49" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="12"/>
+      <c r="A49" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="46">
+        <v>16</v>
+      </c>
       <c r="C49" s="12"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -5088,10 +5085,12 @@
       <c r="AG49" s="9"/>
     </row>
     <row r="50" spans="1:33" ht="15">
-      <c r="A50" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="12"/>
+      <c r="A50" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="46">
+        <v>16</v>
+      </c>
       <c r="C50" s="12"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -5125,10 +5124,12 @@
       <c r="AG50" s="9"/>
     </row>
     <row r="51" spans="1:33" ht="15">
-      <c r="A51" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="12"/>
+      <c r="A51" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="46">
+        <v>16</v>
+      </c>
       <c r="C51" s="12"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -5162,10 +5163,12 @@
       <c r="AG51" s="9"/>
     </row>
     <row r="52" spans="1:33" ht="15">
-      <c r="A52" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="12"/>
+      <c r="A52" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="46">
+        <v>16</v>
+      </c>
       <c r="C52" s="12"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -5199,10 +5202,12 @@
       <c r="AG52" s="9"/>
     </row>
     <row r="53" spans="1:33" ht="15">
-      <c r="A53" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="12"/>
+      <c r="A53" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="46">
+        <v>16</v>
+      </c>
       <c r="C53" s="12"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -5236,10 +5241,12 @@
       <c r="AG53" s="9"/>
     </row>
     <row r="54" spans="1:33" ht="15">
-      <c r="A54" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="12"/>
+      <c r="A54" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="46">
+        <v>16</v>
+      </c>
       <c r="C54" s="12"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -5308,12 +5315,10 @@
       <c r="AG55" s="9"/>
     </row>
     <row r="56" spans="1:33" ht="15">
-      <c r="A56" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>99</v>
-      </c>
+      <c r="A56" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="46"/>
       <c r="C56" s="12" t="s">
         <v>36</v>
       </c>
@@ -5405,10 +5410,12 @@
       <c r="AG56" s="9"/>
     </row>
     <row r="57" spans="1:33" ht="15">
-      <c r="A57" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="47"/>
+      <c r="A57" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="46">
+        <v>18</v>
+      </c>
       <c r="C57" s="12"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -5442,10 +5449,12 @@
       <c r="AG57" s="9"/>
     </row>
     <row r="58" spans="1:33" ht="15">
-      <c r="A58" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="47"/>
+      <c r="A58" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="46">
+        <v>18</v>
+      </c>
       <c r="C58" s="12"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -5479,10 +5488,12 @@
       <c r="AG58" s="9"/>
     </row>
     <row r="59" spans="1:33" ht="15">
-      <c r="A59" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="47"/>
+      <c r="A59" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="46">
+        <v>18</v>
+      </c>
       <c r="C59" s="12"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -5516,10 +5527,12 @@
       <c r="AG59" s="9"/>
     </row>
     <row r="60" spans="1:33" ht="15">
-      <c r="A60" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="12"/>
+      <c r="A60" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="46">
+        <v>18</v>
+      </c>
       <c r="C60" s="12"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -5553,10 +5566,12 @@
       <c r="AG60" s="9"/>
     </row>
     <row r="61" spans="1:33" ht="15">
-      <c r="A61" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="12"/>
+      <c r="A61" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="46">
+        <v>18</v>
+      </c>
       <c r="C61" s="12"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -5590,10 +5605,12 @@
       <c r="AG61" s="9"/>
     </row>
     <row r="62" spans="1:33" ht="15">
-      <c r="A62" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" s="12"/>
+      <c r="A62" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="46">
+        <v>18</v>
+      </c>
       <c r="C62" s="12"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -5627,10 +5644,12 @@
       <c r="AG62" s="9"/>
     </row>
     <row r="63" spans="1:33" ht="15">
-      <c r="A63" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="12"/>
+      <c r="A63" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="46">
+        <v>18</v>
+      </c>
       <c r="C63" s="12"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -5664,12 +5683,10 @@
       <c r="AG63" s="9"/>
     </row>
     <row r="64" spans="1:33" ht="15">
-      <c r="A64" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>99</v>
-      </c>
+      <c r="A64" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="46"/>
       <c r="C64" s="12" t="s">
         <v>44</v>
       </c>
@@ -5761,10 +5778,12 @@
       <c r="AG64" s="9"/>
     </row>
     <row r="65" spans="1:33" ht="15">
-      <c r="A65" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="47"/>
+      <c r="A65" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="46">
+        <v>18</v>
+      </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -5798,10 +5817,12 @@
       <c r="AG65" s="9"/>
     </row>
     <row r="66" spans="1:33" ht="15">
-      <c r="A66" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="47"/>
+      <c r="A66" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="46">
+        <v>18</v>
+      </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -5835,10 +5856,12 @@
       <c r="AG66" s="9"/>
     </row>
     <row r="67" spans="1:33" ht="15">
-      <c r="A67" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="47"/>
+      <c r="A67" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="46">
+        <v>18</v>
+      </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5872,10 +5895,12 @@
       <c r="AG67" s="9"/>
     </row>
     <row r="68" spans="1:33" ht="15">
-      <c r="A68" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B68" s="12"/>
+      <c r="A68" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="46">
+        <v>18</v>
+      </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -5909,10 +5934,12 @@
       <c r="AG68" s="9"/>
     </row>
     <row r="69" spans="1:33" ht="15">
-      <c r="A69" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="12"/>
+      <c r="A69" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="46">
+        <v>18</v>
+      </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -5946,10 +5973,12 @@
       <c r="AG69" s="9"/>
     </row>
     <row r="70" spans="1:33" ht="15">
-      <c r="A70" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="12"/>
+      <c r="A70" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="46">
+        <v>18</v>
+      </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -5983,10 +6012,12 @@
       <c r="AG70" s="9"/>
     </row>
     <row r="71" spans="1:33" ht="15">
-      <c r="A71" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="12"/>
+      <c r="A71" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="46">
+        <v>18</v>
+      </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6020,19 +6051,17 @@
       <c r="AG71" s="9"/>
     </row>
     <row r="72" spans="1:33" ht="15">
-      <c r="A72" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>99</v>
-      </c>
+      <c r="A72" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="46"/>
       <c r="C72" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="47">
-        <v>5</v>
-      </c>
-      <c r="E72" s="47">
+      <c r="D72" s="46">
+        <v>5</v>
+      </c>
+      <c r="E72" s="46">
         <v>10</v>
       </c>
       <c r="F72" s="12"/>
@@ -6117,10 +6146,12 @@
       <c r="AG72" s="9"/>
     </row>
     <row r="73" spans="1:33" ht="15">
-      <c r="A73" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="12"/>
+      <c r="A73" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="46">
+        <v>16</v>
+      </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6154,10 +6185,12 @@
       <c r="AG73" s="9"/>
     </row>
     <row r="74" spans="1:33" ht="15">
-      <c r="A74" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="12"/>
+      <c r="A74" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="46">
+        <v>16</v>
+      </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6296,107 +6329,107 @@
       <c r="AG77" s="9"/>
     </row>
     <row r="78" spans="1:33" ht="15.75">
-      <c r="A78" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A78" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="46"/>
       <c r="C78" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="47">
-        <v>5</v>
-      </c>
-      <c r="E78" s="47">
+      <c r="D78" s="46">
+        <v>5</v>
+      </c>
+      <c r="E78" s="46">
         <v>6</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="49">
-        <v>0</v>
-      </c>
-      <c r="H78" s="49">
-        <v>0</v>
-      </c>
-      <c r="I78" s="49">
-        <v>0</v>
-      </c>
-      <c r="J78" s="49">
-        <v>0</v>
-      </c>
-      <c r="K78" s="49">
-        <v>0</v>
-      </c>
-      <c r="L78" s="49">
-        <v>0</v>
-      </c>
-      <c r="M78" s="49">
-        <v>0</v>
-      </c>
-      <c r="N78" s="49">
-        <v>0</v>
-      </c>
-      <c r="O78" s="49">
+      <c r="F78" s="47"/>
+      <c r="G78" s="48">
+        <v>0</v>
+      </c>
+      <c r="H78" s="48">
+        <v>0</v>
+      </c>
+      <c r="I78" s="48">
+        <v>0</v>
+      </c>
+      <c r="J78" s="48">
+        <v>0</v>
+      </c>
+      <c r="K78" s="48">
+        <v>0</v>
+      </c>
+      <c r="L78" s="48">
+        <v>0</v>
+      </c>
+      <c r="M78" s="48">
+        <v>0</v>
+      </c>
+      <c r="N78" s="48">
+        <v>0</v>
+      </c>
+      <c r="O78" s="48">
         <v>30</v>
       </c>
-      <c r="P78" s="49">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="49">
-        <v>5</v>
-      </c>
-      <c r="R78" s="49">
-        <v>5</v>
-      </c>
-      <c r="S78" s="49">
-        <v>5</v>
-      </c>
-      <c r="T78" s="49">
-        <v>25</v>
-      </c>
-      <c r="U78" s="49">
-        <v>25</v>
-      </c>
-      <c r="V78" s="49">
-        <v>25</v>
-      </c>
-      <c r="W78" s="49">
-        <v>0</v>
-      </c>
-      <c r="X78" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="49">
-        <v>5</v>
-      </c>
-      <c r="Z78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA78" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AD78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AE78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AF78" s="49">
-        <v>5</v>
-      </c>
-      <c r="AG78" s="49"/>
+      <c r="P78" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="48">
+        <v>5</v>
+      </c>
+      <c r="R78" s="48">
+        <v>5</v>
+      </c>
+      <c r="S78" s="48">
+        <v>5</v>
+      </c>
+      <c r="T78" s="48">
+        <v>25</v>
+      </c>
+      <c r="U78" s="48">
+        <v>25</v>
+      </c>
+      <c r="V78" s="48">
+        <v>25</v>
+      </c>
+      <c r="W78" s="48">
+        <v>0</v>
+      </c>
+      <c r="X78" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AA78" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AF78" s="48">
+        <v>5</v>
+      </c>
+      <c r="AG78" s="48"/>
     </row>
     <row r="79" spans="1:33" ht="15">
-      <c r="A79" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="47"/>
+      <c r="A79" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="46">
+        <v>15</v>
+      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -6430,10 +6463,12 @@
       <c r="AG79" s="9"/>
     </row>
     <row r="80" spans="1:33" ht="15">
-      <c r="A80" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="47"/>
+      <c r="A80" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="46">
+        <v>15</v>
+      </c>
       <c r="C80" s="12"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -6467,10 +6502,12 @@
       <c r="AG80" s="9"/>
     </row>
     <row r="81" spans="1:33" ht="15">
-      <c r="A81" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="47"/>
+      <c r="A81" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="46">
+        <v>15</v>
+      </c>
       <c r="C81" s="12"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -6504,10 +6541,12 @@
       <c r="AG81" s="9"/>
     </row>
     <row r="82" spans="1:33" ht="15">
-      <c r="A82" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="47"/>
+      <c r="A82" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="46">
+        <v>15</v>
+      </c>
       <c r="C82" s="12"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -6541,10 +6580,12 @@
       <c r="AG82" s="9"/>
     </row>
     <row r="83" spans="1:33" ht="15">
-      <c r="A83" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="47"/>
+      <c r="A83" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="46">
+        <v>15</v>
+      </c>
       <c r="C83" s="12"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -6578,10 +6619,12 @@
       <c r="AG83" s="9"/>
     </row>
     <row r="84" spans="1:33" ht="15">
-      <c r="A84" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="47"/>
+      <c r="A84" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="46">
+        <v>15</v>
+      </c>
       <c r="C84" s="12"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -6615,10 +6658,12 @@
       <c r="AG84" s="9"/>
     </row>
     <row r="85" spans="1:33" ht="15">
-      <c r="A85" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="47"/>
+      <c r="A85" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="46">
+        <v>15</v>
+      </c>
       <c r="C85" s="12"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -6652,10 +6697,12 @@
       <c r="AG85" s="9"/>
     </row>
     <row r="86" spans="1:33" ht="15">
-      <c r="A86" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="47"/>
+      <c r="A86" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="46">
+        <v>15</v>
+      </c>
       <c r="C86" s="12"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -6689,10 +6736,12 @@
       <c r="AG86" s="9"/>
     </row>
     <row r="87" spans="1:33" ht="15">
-      <c r="A87" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="47"/>
+      <c r="A87" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="46">
+        <v>15</v>
+      </c>
       <c r="C87" s="12"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -6726,10 +6775,12 @@
       <c r="AG87" s="9"/>
     </row>
     <row r="88" spans="1:33" ht="15">
-      <c r="A88" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="47"/>
+      <c r="A88" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="46">
+        <v>15</v>
+      </c>
       <c r="C88" s="12"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -6763,10 +6814,12 @@
       <c r="AG88" s="9"/>
     </row>
     <row r="89" spans="1:33" ht="15">
-      <c r="A89" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="47"/>
+      <c r="A89" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="46">
+        <v>15</v>
+      </c>
       <c r="C89" s="12"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
@@ -6800,10 +6853,12 @@
       <c r="AG89" s="9"/>
     </row>
     <row r="90" spans="1:33" ht="15">
-      <c r="A90" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="47"/>
+      <c r="A90" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="46">
+        <v>15</v>
+      </c>
       <c r="C90" s="12"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -6837,10 +6892,12 @@
       <c r="AG90" s="9"/>
     </row>
     <row r="91" spans="1:33" ht="15">
-      <c r="A91" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="47"/>
+      <c r="A91" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="46">
+        <v>15</v>
+      </c>
       <c r="C91" s="12"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -6874,10 +6931,12 @@
       <c r="AG91" s="9"/>
     </row>
     <row r="92" spans="1:33" ht="15">
-      <c r="A92" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="47"/>
+      <c r="A92" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="46">
+        <v>15</v>
+      </c>
       <c r="C92" s="12"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -6911,10 +6970,12 @@
       <c r="AG92" s="9"/>
     </row>
     <row r="93" spans="1:33" ht="15">
-      <c r="A93" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="47"/>
+      <c r="A93" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="46">
+        <v>15</v>
+      </c>
       <c r="C93" s="12"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -6948,10 +7009,12 @@
       <c r="AG93" s="9"/>
     </row>
     <row r="94" spans="1:33" ht="15">
-      <c r="A94" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="47"/>
+      <c r="A94" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="46">
+        <v>20</v>
+      </c>
       <c r="C94" s="12"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -6985,10 +7048,12 @@
       <c r="AG94" s="9"/>
     </row>
     <row r="95" spans="1:33" ht="15">
-      <c r="A95" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="47"/>
+      <c r="A95" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="46">
+        <v>15</v>
+      </c>
       <c r="C95" s="12"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -7022,10 +7087,12 @@
       <c r="AG95" s="9"/>
     </row>
     <row r="96" spans="1:33" ht="15">
-      <c r="A96" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="47"/>
+      <c r="A96" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="46">
+        <v>15</v>
+      </c>
       <c r="C96" s="12"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -7059,10 +7126,12 @@
       <c r="AG96" s="9"/>
     </row>
     <row r="97" spans="1:33" ht="15">
-      <c r="A97" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B97" s="47"/>
+      <c r="A97" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="46">
+        <v>15</v>
+      </c>
       <c r="C97" s="12"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -7096,10 +7165,12 @@
       <c r="AG97" s="9"/>
     </row>
     <row r="98" spans="1:33" ht="15">
-      <c r="A98" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="47"/>
+      <c r="A98" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="46">
+        <v>20</v>
+      </c>
       <c r="C98" s="12"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -7133,10 +7204,12 @@
       <c r="AG98" s="9"/>
     </row>
     <row r="99" spans="1:33" ht="15">
-      <c r="A99" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="47"/>
+      <c r="A99" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="46">
+        <v>15</v>
+      </c>
       <c r="C99" s="12"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -7170,10 +7243,12 @@
       <c r="AG99" s="9"/>
     </row>
     <row r="100" spans="1:33" ht="15">
-      <c r="A100" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B100" s="47"/>
+      <c r="A100" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="46">
+        <v>15</v>
+      </c>
       <c r="C100" s="12"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -7207,10 +7282,12 @@
       <c r="AG100" s="9"/>
     </row>
     <row r="101" spans="1:33" ht="15">
-      <c r="A101" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="47"/>
+      <c r="A101" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="46">
+        <v>15</v>
+      </c>
       <c r="C101" s="12"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -7244,10 +7321,12 @@
       <c r="AG101" s="9"/>
     </row>
     <row r="102" spans="1:33" ht="15">
-      <c r="A102" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="47"/>
+      <c r="A102" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="46">
+        <v>15</v>
+      </c>
       <c r="C102" s="12"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
@@ -7281,10 +7360,12 @@
       <c r="AG102" s="9"/>
     </row>
     <row r="103" spans="1:33" ht="15">
-      <c r="A103" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="47"/>
+      <c r="A103" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="46">
+        <v>15</v>
+      </c>
       <c r="C103" s="12"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -7318,10 +7399,12 @@
       <c r="AG103" s="9"/>
     </row>
     <row r="104" spans="1:33" ht="15">
-      <c r="A104" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="47"/>
+      <c r="A104" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="46">
+        <v>20</v>
+      </c>
       <c r="C104" s="12"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
@@ -7355,385 +7438,389 @@
       <c r="AG104" s="9"/>
     </row>
     <row r="105" spans="1:33" ht="15.75">
-      <c r="A105" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B105" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A105" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="46"/>
       <c r="C105" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D105" s="47">
-        <v>5</v>
-      </c>
-      <c r="E105" s="47">
+      <c r="D105" s="46">
+        <v>5</v>
+      </c>
+      <c r="E105" s="46">
         <v>6</v>
       </c>
-      <c r="F105" s="48"/>
-      <c r="G105" s="49">
-        <v>0</v>
-      </c>
-      <c r="H105" s="49">
-        <v>0</v>
-      </c>
-      <c r="I105" s="49">
-        <v>0</v>
-      </c>
-      <c r="J105" s="49">
-        <v>0</v>
-      </c>
-      <c r="K105" s="49">
-        <v>0</v>
-      </c>
-      <c r="L105" s="49">
-        <v>0</v>
-      </c>
-      <c r="M105" s="49">
-        <v>0</v>
-      </c>
-      <c r="N105" s="49">
-        <v>0</v>
-      </c>
-      <c r="O105" s="49">
+      <c r="F105" s="47"/>
+      <c r="G105" s="48">
+        <v>0</v>
+      </c>
+      <c r="H105" s="48">
+        <v>0</v>
+      </c>
+      <c r="I105" s="48">
+        <v>0</v>
+      </c>
+      <c r="J105" s="48">
+        <v>0</v>
+      </c>
+      <c r="K105" s="48">
+        <v>0</v>
+      </c>
+      <c r="L105" s="48">
+        <v>0</v>
+      </c>
+      <c r="M105" s="48">
+        <v>0</v>
+      </c>
+      <c r="N105" s="48">
+        <v>0</v>
+      </c>
+      <c r="O105" s="48">
         <v>30</v>
       </c>
-      <c r="P105" s="49">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="49">
-        <v>5</v>
-      </c>
-      <c r="R105" s="49">
-        <v>5</v>
-      </c>
-      <c r="S105" s="49">
-        <v>5</v>
-      </c>
-      <c r="T105" s="49">
-        <v>25</v>
-      </c>
-      <c r="U105" s="49">
-        <v>25</v>
-      </c>
-      <c r="V105" s="49">
-        <v>25</v>
-      </c>
-      <c r="W105" s="49">
-        <v>0</v>
-      </c>
-      <c r="X105" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="49">
-        <v>5</v>
-      </c>
-      <c r="Z105" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA105" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC105" s="49">
-        <v>5</v>
-      </c>
-      <c r="AD105" s="49">
-        <v>5</v>
-      </c>
-      <c r="AE105" s="49">
-        <v>5</v>
-      </c>
-      <c r="AF105" s="49">
+      <c r="P105" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="48">
+        <v>5</v>
+      </c>
+      <c r="R105" s="48">
+        <v>5</v>
+      </c>
+      <c r="S105" s="48">
+        <v>5</v>
+      </c>
+      <c r="T105" s="48">
+        <v>25</v>
+      </c>
+      <c r="U105" s="48">
+        <v>25</v>
+      </c>
+      <c r="V105" s="48">
+        <v>25</v>
+      </c>
+      <c r="W105" s="48">
+        <v>0</v>
+      </c>
+      <c r="X105" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z105" s="48">
+        <v>5</v>
+      </c>
+      <c r="AA105" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC105" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD105" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE105" s="48">
+        <v>5</v>
+      </c>
+      <c r="AF105" s="48">
         <v>5</v>
       </c>
       <c r="AG105" s="9"/>
     </row>
     <row r="106" spans="1:33" ht="15">
-      <c r="A106" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="47"/>
+      <c r="A106" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" s="46">
+        <v>15</v>
+      </c>
       <c r="C106" s="12"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
-      <c r="K106" s="49"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="49"/>
-      <c r="N106" s="49"/>
-      <c r="O106" s="49"/>
-      <c r="P106" s="49"/>
-      <c r="Q106" s="49"/>
-      <c r="R106" s="49"/>
-      <c r="S106" s="49"/>
-      <c r="T106" s="49"/>
-      <c r="U106" s="49"/>
-      <c r="V106" s="49"/>
-      <c r="W106" s="49"/>
-      <c r="X106" s="49"/>
-      <c r="Y106" s="49"/>
-      <c r="Z106" s="49"/>
-      <c r="AA106" s="49"/>
-      <c r="AB106" s="49"/>
-      <c r="AC106" s="49"/>
-      <c r="AD106" s="49"/>
-      <c r="AE106" s="49"/>
-      <c r="AF106" s="49"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
+      <c r="S106" s="48"/>
+      <c r="T106" s="48"/>
+      <c r="U106" s="48"/>
+      <c r="V106" s="48"/>
+      <c r="W106" s="48"/>
+      <c r="X106" s="48"/>
+      <c r="Y106" s="48"/>
+      <c r="Z106" s="48"/>
+      <c r="AA106" s="48"/>
+      <c r="AB106" s="48"/>
+      <c r="AC106" s="48"/>
+      <c r="AD106" s="48"/>
+      <c r="AE106" s="48"/>
+      <c r="AF106" s="48"/>
       <c r="AG106" s="9"/>
     </row>
     <row r="107" spans="1:33" ht="15">
-      <c r="A107" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="47"/>
+      <c r="A107" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="46">
+        <v>15</v>
+      </c>
       <c r="C107" s="12"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
-      <c r="K107" s="49"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
-      <c r="N107" s="49"/>
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
-      <c r="Q107" s="49"/>
-      <c r="R107" s="49"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="49"/>
-      <c r="V107" s="49"/>
-      <c r="W107" s="49"/>
-      <c r="X107" s="49"/>
-      <c r="Y107" s="49"/>
-      <c r="Z107" s="49"/>
-      <c r="AA107" s="49"/>
-      <c r="AB107" s="49"/>
-      <c r="AC107" s="49"/>
-      <c r="AD107" s="49"/>
-      <c r="AE107" s="49"/>
-      <c r="AF107" s="49"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="48"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="48"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="48"/>
+      <c r="P107" s="48"/>
+      <c r="Q107" s="48"/>
+      <c r="R107" s="48"/>
+      <c r="S107" s="48"/>
+      <c r="T107" s="48"/>
+      <c r="U107" s="48"/>
+      <c r="V107" s="48"/>
+      <c r="W107" s="48"/>
+      <c r="X107" s="48"/>
+      <c r="Y107" s="48"/>
+      <c r="Z107" s="48"/>
+      <c r="AA107" s="48"/>
+      <c r="AB107" s="48"/>
+      <c r="AC107" s="48"/>
+      <c r="AD107" s="48"/>
+      <c r="AE107" s="48"/>
+      <c r="AF107" s="48"/>
       <c r="AG107" s="9"/>
     </row>
     <row r="108" spans="1:33" ht="15">
-      <c r="A108" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B108" s="47"/>
+      <c r="A108" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="46">
+        <v>15</v>
+      </c>
       <c r="C108" s="12"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="49"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="49"/>
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
-      <c r="Q108" s="49"/>
-      <c r="R108" s="49"/>
-      <c r="S108" s="49"/>
-      <c r="T108" s="49"/>
-      <c r="U108" s="49"/>
-      <c r="V108" s="49"/>
-      <c r="W108" s="49"/>
-      <c r="X108" s="49"/>
-      <c r="Y108" s="49"/>
-      <c r="Z108" s="49"/>
-      <c r="AA108" s="49"/>
-      <c r="AB108" s="49"/>
-      <c r="AC108" s="49"/>
-      <c r="AD108" s="49"/>
-      <c r="AE108" s="49"/>
-      <c r="AF108" s="49"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="48"/>
+      <c r="S108" s="48"/>
+      <c r="T108" s="48"/>
+      <c r="U108" s="48"/>
+      <c r="V108" s="48"/>
+      <c r="W108" s="48"/>
+      <c r="X108" s="48"/>
+      <c r="Y108" s="48"/>
+      <c r="Z108" s="48"/>
+      <c r="AA108" s="48"/>
+      <c r="AB108" s="48"/>
+      <c r="AC108" s="48"/>
+      <c r="AD108" s="48"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="48"/>
       <c r="AG108" s="9"/>
     </row>
     <row r="109" spans="1:33" ht="15.75">
-      <c r="A109" s="50"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="49"/>
-      <c r="R109" s="49"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
-      <c r="U109" s="49"/>
-      <c r="V109" s="49"/>
-      <c r="W109" s="49"/>
-      <c r="X109" s="49"/>
-      <c r="Y109" s="49"/>
-      <c r="Z109" s="49"/>
-      <c r="AA109" s="49"/>
-      <c r="AB109" s="49"/>
-      <c r="AC109" s="49"/>
-      <c r="AD109" s="49"/>
-      <c r="AE109" s="49"/>
-      <c r="AF109" s="49"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="48"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="48"/>
+      <c r="V109" s="48"/>
+      <c r="W109" s="48"/>
+      <c r="X109" s="48"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="48"/>
+      <c r="AB109" s="48"/>
+      <c r="AC109" s="48"/>
+      <c r="AD109" s="48"/>
+      <c r="AE109" s="48"/>
+      <c r="AF109" s="48"/>
       <c r="AG109" s="9"/>
     </row>
     <row r="110" spans="1:33" ht="15.75">
-      <c r="A110" s="50"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="12"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="49"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="49"/>
-      <c r="N110" s="49"/>
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
-      <c r="Q110" s="49"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="49"/>
-      <c r="U110" s="49"/>
-      <c r="V110" s="49"/>
-      <c r="W110" s="49"/>
-      <c r="X110" s="49"/>
-      <c r="Y110" s="49"/>
-      <c r="Z110" s="49"/>
-      <c r="AA110" s="49"/>
-      <c r="AB110" s="49"/>
-      <c r="AC110" s="49"/>
-      <c r="AD110" s="49"/>
-      <c r="AE110" s="49"/>
-      <c r="AF110" s="49"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48"/>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="48"/>
+      <c r="V110" s="48"/>
+      <c r="W110" s="48"/>
+      <c r="X110" s="48"/>
+      <c r="Y110" s="48"/>
+      <c r="Z110" s="48"/>
+      <c r="AA110" s="48"/>
+      <c r="AB110" s="48"/>
+      <c r="AC110" s="48"/>
+      <c r="AD110" s="48"/>
+      <c r="AE110" s="48"/>
+      <c r="AF110" s="48"/>
       <c r="AG110" s="9"/>
     </row>
     <row r="111" spans="1:33" ht="15.75">
-      <c r="A111" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B111" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A111" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="46"/>
       <c r="C111" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="47">
-        <v>5</v>
-      </c>
-      <c r="E111" s="47">
+      <c r="D111" s="46">
+        <v>5</v>
+      </c>
+      <c r="E111" s="46">
         <v>6</v>
       </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="49">
-        <v>5</v>
-      </c>
-      <c r="H111" s="49">
-        <v>5</v>
-      </c>
-      <c r="I111" s="49">
-        <v>5</v>
-      </c>
-      <c r="J111" s="49">
-        <v>10</v>
-      </c>
-      <c r="K111" s="49">
-        <v>10</v>
-      </c>
-      <c r="L111" s="49">
-        <v>5</v>
-      </c>
-      <c r="M111" s="49">
-        <v>5</v>
-      </c>
-      <c r="N111" s="49">
-        <v>5</v>
-      </c>
-      <c r="O111" s="49">
+      <c r="F111" s="47"/>
+      <c r="G111" s="48">
+        <v>5</v>
+      </c>
+      <c r="H111" s="48">
+        <v>5</v>
+      </c>
+      <c r="I111" s="48">
+        <v>5</v>
+      </c>
+      <c r="J111" s="48">
+        <v>10</v>
+      </c>
+      <c r="K111" s="48">
+        <v>10</v>
+      </c>
+      <c r="L111" s="48">
+        <v>5</v>
+      </c>
+      <c r="M111" s="48">
+        <v>5</v>
+      </c>
+      <c r="N111" s="48">
+        <v>5</v>
+      </c>
+      <c r="O111" s="48">
         <v>40</v>
       </c>
-      <c r="P111" s="49">
-        <v>15</v>
-      </c>
-      <c r="Q111" s="49">
-        <v>5</v>
-      </c>
-      <c r="R111" s="49">
-        <v>10</v>
-      </c>
-      <c r="S111" s="49">
-        <v>10</v>
-      </c>
-      <c r="T111" s="49">
+      <c r="P111" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q111" s="48">
+        <v>5</v>
+      </c>
+      <c r="R111" s="48">
+        <v>10</v>
+      </c>
+      <c r="S111" s="48">
+        <v>10</v>
+      </c>
+      <c r="T111" s="48">
         <v>35</v>
       </c>
-      <c r="U111" s="49">
+      <c r="U111" s="48">
         <v>35</v>
       </c>
-      <c r="V111" s="49">
+      <c r="V111" s="48">
         <v>35</v>
       </c>
-      <c r="W111" s="49">
-        <v>0</v>
-      </c>
-      <c r="X111" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="49">
-        <v>5</v>
-      </c>
-      <c r="Z111" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA111" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC111" s="49">
-        <v>5</v>
-      </c>
-      <c r="AD111" s="49">
-        <v>5</v>
-      </c>
-      <c r="AE111" s="49">
-        <v>5</v>
-      </c>
-      <c r="AF111" s="49">
+      <c r="W111" s="48">
+        <v>0</v>
+      </c>
+      <c r="X111" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z111" s="48">
+        <v>5</v>
+      </c>
+      <c r="AA111" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC111" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD111" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE111" s="48">
+        <v>5</v>
+      </c>
+      <c r="AF111" s="48">
         <v>5</v>
       </c>
       <c r="AG111" s="9"/>
     </row>
     <row r="112" spans="1:33" ht="15">
-      <c r="A112" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="47"/>
+      <c r="A112" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="46">
+        <v>15</v>
+      </c>
       <c r="C112" s="12"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
@@ -7767,10 +7854,12 @@
       <c r="AG112" s="9"/>
     </row>
     <row r="113" spans="1:33" ht="15">
-      <c r="A113" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" s="47"/>
+      <c r="A113" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="46">
+        <v>15</v>
+      </c>
       <c r="C113" s="12"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
@@ -7804,10 +7893,12 @@
       <c r="AG113" s="9"/>
     </row>
     <row r="114" spans="1:33" ht="15">
-      <c r="A114" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="47"/>
+      <c r="A114" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="46">
+        <v>15</v>
+      </c>
       <c r="C114" s="12"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
@@ -7841,10 +7932,12 @@
       <c r="AG114" s="9"/>
     </row>
     <row r="115" spans="1:33" ht="15">
-      <c r="A115" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="47"/>
+      <c r="A115" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="46">
+        <v>15</v>
+      </c>
       <c r="C115" s="12"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
@@ -7878,10 +7971,12 @@
       <c r="AG115" s="9"/>
     </row>
     <row r="116" spans="1:33" ht="15">
-      <c r="A116" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B116" s="47"/>
+      <c r="A116" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="46">
+        <v>15</v>
+      </c>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
@@ -7915,10 +8010,12 @@
       <c r="AG116" s="9"/>
     </row>
     <row r="117" spans="1:33" ht="15">
-      <c r="A117" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B117" s="47"/>
+      <c r="A117" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="46">
+        <v>15</v>
+      </c>
       <c r="C117" s="12"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -7952,10 +8049,12 @@
       <c r="AG117" s="9"/>
     </row>
     <row r="118" spans="1:33" ht="15">
-      <c r="A118" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" s="47"/>
+      <c r="A118" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="46">
+        <v>15</v>
+      </c>
       <c r="C118" s="12"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -7989,10 +8088,12 @@
       <c r="AG118" s="9"/>
     </row>
     <row r="119" spans="1:33" ht="15">
-      <c r="A119" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="47"/>
+      <c r="A119" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="46">
+        <v>15</v>
+      </c>
       <c r="C119" s="12"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
@@ -8026,10 +8127,12 @@
       <c r="AG119" s="9"/>
     </row>
     <row r="120" spans="1:33" ht="15">
-      <c r="A120" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="47"/>
+      <c r="A120" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="46">
+        <v>15</v>
+      </c>
       <c r="C120" s="12"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -8063,10 +8166,12 @@
       <c r="AG120" s="9"/>
     </row>
     <row r="121" spans="1:33" ht="15">
-      <c r="A121" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="47"/>
+      <c r="A121" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="46">
+        <v>20</v>
+      </c>
       <c r="C121" s="12"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
@@ -8100,10 +8205,12 @@
       <c r="AG121" s="9"/>
     </row>
     <row r="122" spans="1:33" ht="15">
-      <c r="A122" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" s="47"/>
+      <c r="A122" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="46">
+        <v>15</v>
+      </c>
       <c r="C122" s="12"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
@@ -8137,10 +8244,12 @@
       <c r="AG122" s="9"/>
     </row>
     <row r="123" spans="1:33" ht="15">
-      <c r="A123" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" s="47"/>
+      <c r="A123" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="46">
+        <v>15</v>
+      </c>
       <c r="C123" s="12"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
@@ -8174,10 +8283,12 @@
       <c r="AG123" s="9"/>
     </row>
     <row r="124" spans="1:33" ht="15">
-      <c r="A124" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" s="47"/>
+      <c r="A124" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="46">
+        <v>15</v>
+      </c>
       <c r="C124" s="12"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
@@ -8211,10 +8322,12 @@
       <c r="AG124" s="9"/>
     </row>
     <row r="125" spans="1:33" ht="15">
-      <c r="A125" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" s="47"/>
+      <c r="A125" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="46">
+        <v>15</v>
+      </c>
       <c r="C125" s="12"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
@@ -8248,10 +8361,12 @@
       <c r="AG125" s="9"/>
     </row>
     <row r="126" spans="1:33" ht="15">
-      <c r="A126" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" s="47"/>
+      <c r="A126" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="46">
+        <v>15</v>
+      </c>
       <c r="C126" s="12"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -8285,10 +8400,12 @@
       <c r="AG126" s="9"/>
     </row>
     <row r="127" spans="1:33" ht="15">
-      <c r="A127" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" s="47"/>
+      <c r="A127" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="46">
+        <v>20</v>
+      </c>
       <c r="C127" s="12"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -8322,10 +8439,12 @@
       <c r="AG127" s="9"/>
     </row>
     <row r="128" spans="1:33" ht="15">
-      <c r="A128" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" s="47"/>
+      <c r="A128" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="46">
+        <v>15</v>
+      </c>
       <c r="C128" s="12"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
@@ -8359,10 +8478,12 @@
       <c r="AG128" s="9"/>
     </row>
     <row r="129" spans="1:33" ht="15">
-      <c r="A129" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="47"/>
+      <c r="A129" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="46">
+        <v>15</v>
+      </c>
       <c r="C129" s="12"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
@@ -8396,10 +8517,12 @@
       <c r="AG129" s="9"/>
     </row>
     <row r="130" spans="1:33" ht="15">
-      <c r="A130" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" s="47"/>
+      <c r="A130" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="46">
+        <v>15</v>
+      </c>
       <c r="C130" s="12"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
@@ -8433,10 +8556,12 @@
       <c r="AG130" s="9"/>
     </row>
     <row r="131" spans="1:33" ht="15">
-      <c r="A131" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" s="47"/>
+      <c r="A131" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="46">
+        <v>20</v>
+      </c>
       <c r="C131" s="12"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
@@ -8470,10 +8595,12 @@
       <c r="AG131" s="9"/>
     </row>
     <row r="132" spans="1:33" ht="15">
-      <c r="A132" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="47"/>
+      <c r="A132" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="46">
+        <v>15</v>
+      </c>
       <c r="C132" s="12"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
@@ -8507,10 +8634,12 @@
       <c r="AG132" s="9"/>
     </row>
     <row r="133" spans="1:33" ht="15">
-      <c r="A133" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="47"/>
+      <c r="A133" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="46">
+        <v>15</v>
+      </c>
       <c r="C133" s="12"/>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
@@ -8544,10 +8673,12 @@
       <c r="AG133" s="9"/>
     </row>
     <row r="134" spans="1:33" ht="15">
-      <c r="A134" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" s="47"/>
+      <c r="A134" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="46">
+        <v>15</v>
+      </c>
       <c r="C134" s="12"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
@@ -8581,10 +8712,12 @@
       <c r="AG134" s="9"/>
     </row>
     <row r="135" spans="1:33" ht="15">
-      <c r="A135" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="47"/>
+      <c r="A135" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="46">
+        <v>15</v>
+      </c>
       <c r="C135" s="12"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
@@ -8618,10 +8751,12 @@
       <c r="AG135" s="9"/>
     </row>
     <row r="136" spans="1:33" ht="15">
-      <c r="A136" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="47"/>
+      <c r="A136" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" s="46">
+        <v>15</v>
+      </c>
       <c r="C136" s="12"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
@@ -8655,10 +8790,12 @@
       <c r="AG136" s="9"/>
     </row>
     <row r="137" spans="1:33" ht="15">
-      <c r="A137" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" s="47"/>
+      <c r="A137" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="46">
+        <v>20</v>
+      </c>
       <c r="C137" s="12"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
@@ -8692,107 +8829,107 @@
       <c r="AG137" s="9"/>
     </row>
     <row r="138" spans="1:33" ht="15.75">
-      <c r="A138" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A138" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="46"/>
       <c r="C138" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="47">
-        <v>5</v>
-      </c>
-      <c r="E138" s="47">
+      <c r="D138" s="46">
+        <v>5</v>
+      </c>
+      <c r="E138" s="46">
         <v>6</v>
       </c>
-      <c r="F138" s="48"/>
-      <c r="G138" s="49">
-        <v>0</v>
-      </c>
-      <c r="H138" s="49">
-        <v>0</v>
-      </c>
-      <c r="I138" s="49">
-        <v>0</v>
-      </c>
-      <c r="J138" s="49">
-        <v>0</v>
-      </c>
-      <c r="K138" s="49">
-        <v>0</v>
-      </c>
-      <c r="L138" s="49">
-        <v>0</v>
-      </c>
-      <c r="M138" s="49">
-        <v>0</v>
-      </c>
-      <c r="N138" s="49">
-        <v>0</v>
-      </c>
-      <c r="O138" s="49">
+      <c r="F138" s="47"/>
+      <c r="G138" s="48">
+        <v>0</v>
+      </c>
+      <c r="H138" s="48">
+        <v>0</v>
+      </c>
+      <c r="I138" s="48">
+        <v>0</v>
+      </c>
+      <c r="J138" s="48">
+        <v>0</v>
+      </c>
+      <c r="K138" s="48">
+        <v>0</v>
+      </c>
+      <c r="L138" s="48">
+        <v>0</v>
+      </c>
+      <c r="M138" s="48">
+        <v>0</v>
+      </c>
+      <c r="N138" s="48">
+        <v>0</v>
+      </c>
+      <c r="O138" s="48">
         <v>30</v>
       </c>
-      <c r="P138" s="49">
-        <v>10</v>
-      </c>
-      <c r="Q138" s="49">
-        <v>5</v>
-      </c>
-      <c r="R138" s="49">
-        <v>5</v>
-      </c>
-      <c r="S138" s="49">
-        <v>5</v>
-      </c>
-      <c r="T138" s="49">
-        <v>25</v>
-      </c>
-      <c r="U138" s="49">
-        <v>25</v>
-      </c>
-      <c r="V138" s="49">
-        <v>25</v>
-      </c>
-      <c r="W138" s="49">
-        <v>0</v>
-      </c>
-      <c r="X138" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y138" s="49">
-        <v>5</v>
-      </c>
-      <c r="Z138" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA138" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB138" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC138" s="49">
-        <v>5</v>
-      </c>
-      <c r="AD138" s="49">
-        <v>5</v>
-      </c>
-      <c r="AE138" s="49">
-        <v>5</v>
-      </c>
-      <c r="AF138" s="49">
+      <c r="P138" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q138" s="48">
+        <v>5</v>
+      </c>
+      <c r="R138" s="48">
+        <v>5</v>
+      </c>
+      <c r="S138" s="48">
+        <v>5</v>
+      </c>
+      <c r="T138" s="48">
+        <v>25</v>
+      </c>
+      <c r="U138" s="48">
+        <v>25</v>
+      </c>
+      <c r="V138" s="48">
+        <v>25</v>
+      </c>
+      <c r="W138" s="48">
+        <v>0</v>
+      </c>
+      <c r="X138" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z138" s="48">
+        <v>5</v>
+      </c>
+      <c r="AA138" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC138" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD138" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE138" s="48">
+        <v>5</v>
+      </c>
+      <c r="AF138" s="48">
         <v>5</v>
       </c>
       <c r="AG138" s="9"/>
     </row>
     <row r="139" spans="1:33" ht="15">
-      <c r="A139" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="47"/>
+      <c r="A139" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="46">
+        <v>15</v>
+      </c>
       <c r="C139" s="12"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
@@ -8826,10 +8963,12 @@
       <c r="AG139" s="9"/>
     </row>
     <row r="140" spans="1:33" ht="15">
-      <c r="A140" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" s="47"/>
+      <c r="A140" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="46">
+        <v>15</v>
+      </c>
       <c r="C140" s="12"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
@@ -8863,10 +9002,12 @@
       <c r="AG140" s="9"/>
     </row>
     <row r="141" spans="1:33" ht="15">
-      <c r="A141" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" s="47"/>
+      <c r="A141" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="46">
+        <v>15</v>
+      </c>
       <c r="C141" s="12"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
@@ -8900,107 +9041,107 @@
       <c r="AG141" s="9"/>
     </row>
     <row r="142" spans="1:33" ht="15.75">
-      <c r="A142" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A142" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" s="46"/>
       <c r="C142" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D142" s="47">
-        <v>5</v>
-      </c>
-      <c r="E142" s="47">
+      <c r="D142" s="46">
+        <v>5</v>
+      </c>
+      <c r="E142" s="46">
         <v>6</v>
       </c>
-      <c r="F142" s="48"/>
-      <c r="G142" s="49">
-        <v>0</v>
-      </c>
-      <c r="H142" s="49">
-        <v>0</v>
-      </c>
-      <c r="I142" s="49">
-        <v>0</v>
-      </c>
-      <c r="J142" s="49">
-        <v>0</v>
-      </c>
-      <c r="K142" s="49">
-        <v>0</v>
-      </c>
-      <c r="L142" s="49">
-        <v>0</v>
-      </c>
-      <c r="M142" s="49">
-        <v>0</v>
-      </c>
-      <c r="N142" s="49">
-        <v>0</v>
-      </c>
-      <c r="O142" s="49">
-        <v>5</v>
-      </c>
-      <c r="P142" s="49">
-        <v>10</v>
-      </c>
-      <c r="Q142" s="49">
-        <v>5</v>
-      </c>
-      <c r="R142" s="49">
-        <v>5</v>
-      </c>
-      <c r="S142" s="49">
-        <v>5</v>
-      </c>
-      <c r="T142" s="49">
-        <v>15</v>
-      </c>
-      <c r="U142" s="49">
-        <v>15</v>
-      </c>
-      <c r="V142" s="49">
-        <v>15</v>
-      </c>
-      <c r="W142" s="49">
-        <v>0</v>
-      </c>
-      <c r="X142" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="49">
-        <v>10</v>
-      </c>
-      <c r="Z142" s="49">
-        <v>10</v>
-      </c>
-      <c r="AA142" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB142" s="49">
-        <v>10</v>
-      </c>
-      <c r="AC142" s="49">
-        <v>10</v>
-      </c>
-      <c r="AD142" s="49">
-        <v>10</v>
-      </c>
-      <c r="AE142" s="49">
-        <v>10</v>
-      </c>
-      <c r="AF142" s="49">
+      <c r="F142" s="47"/>
+      <c r="G142" s="48">
+        <v>0</v>
+      </c>
+      <c r="H142" s="48">
+        <v>0</v>
+      </c>
+      <c r="I142" s="48">
+        <v>0</v>
+      </c>
+      <c r="J142" s="48">
+        <v>0</v>
+      </c>
+      <c r="K142" s="48">
+        <v>0</v>
+      </c>
+      <c r="L142" s="48">
+        <v>0</v>
+      </c>
+      <c r="M142" s="48">
+        <v>0</v>
+      </c>
+      <c r="N142" s="48">
+        <v>0</v>
+      </c>
+      <c r="O142" s="48">
+        <v>5</v>
+      </c>
+      <c r="P142" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q142" s="48">
+        <v>5</v>
+      </c>
+      <c r="R142" s="48">
+        <v>5</v>
+      </c>
+      <c r="S142" s="48">
+        <v>5</v>
+      </c>
+      <c r="T142" s="48">
+        <v>15</v>
+      </c>
+      <c r="U142" s="48">
+        <v>15</v>
+      </c>
+      <c r="V142" s="48">
+        <v>15</v>
+      </c>
+      <c r="W142" s="48">
+        <v>0</v>
+      </c>
+      <c r="X142" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="48">
+        <v>10</v>
+      </c>
+      <c r="Z142" s="48">
+        <v>10</v>
+      </c>
+      <c r="AA142" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="48">
+        <v>10</v>
+      </c>
+      <c r="AC142" s="48">
+        <v>10</v>
+      </c>
+      <c r="AD142" s="48">
+        <v>10</v>
+      </c>
+      <c r="AE142" s="48">
+        <v>10</v>
+      </c>
+      <c r="AF142" s="48">
         <v>10</v>
       </c>
       <c r="AG142" s="9"/>
     </row>
     <row r="143" spans="1:33" ht="15">
-      <c r="A143" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B143" s="47"/>
+      <c r="A143" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" s="46">
+        <v>15</v>
+      </c>
       <c r="C143" s="12"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
@@ -9034,10 +9175,12 @@
       <c r="AG143" s="9"/>
     </row>
     <row r="144" spans="1:33" ht="15">
-      <c r="A144" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B144" s="47"/>
+      <c r="A144" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B144" s="46">
+        <v>15</v>
+      </c>
       <c r="C144" s="12"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
@@ -9071,10 +9214,12 @@
       <c r="AG144" s="9"/>
     </row>
     <row r="145" spans="1:33" ht="15">
-      <c r="A145" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B145" s="47"/>
+      <c r="A145" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B145" s="46">
+        <v>15</v>
+      </c>
       <c r="C145" s="12"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
@@ -9108,10 +9253,12 @@
       <c r="AG145" s="9"/>
     </row>
     <row r="146" spans="1:33" ht="15">
-      <c r="A146" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="47"/>
+      <c r="A146" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146" s="46">
+        <v>15</v>
+      </c>
       <c r="C146" s="12"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
@@ -9145,10 +9292,12 @@
       <c r="AG146" s="9"/>
     </row>
     <row r="147" spans="1:33" ht="15">
-      <c r="A147" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="47"/>
+      <c r="A147" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B147" s="46">
+        <v>15</v>
+      </c>
       <c r="C147" s="12"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -9182,10 +9331,12 @@
       <c r="AG147" s="9"/>
     </row>
     <row r="148" spans="1:33" ht="15">
-      <c r="A148" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B148" s="47"/>
+      <c r="A148" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B148" s="46">
+        <v>15</v>
+      </c>
       <c r="C148" s="12"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
@@ -9219,10 +9370,12 @@
       <c r="AG148" s="9"/>
     </row>
     <row r="149" spans="1:33" ht="15">
-      <c r="A149" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B149" s="47"/>
+      <c r="A149" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="46">
+        <v>15</v>
+      </c>
       <c r="C149" s="12"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
@@ -9256,10 +9409,12 @@
       <c r="AG149" s="9"/>
     </row>
     <row r="150" spans="1:33" ht="15">
-      <c r="A150" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B150" s="47"/>
+      <c r="A150" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="46">
+        <v>15</v>
+      </c>
       <c r="C150" s="12"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -9293,10 +9448,12 @@
       <c r="AG150" s="9"/>
     </row>
     <row r="151" spans="1:33" ht="15">
-      <c r="A151" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B151" s="47"/>
+      <c r="A151" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="46">
+        <v>15</v>
+      </c>
       <c r="C151" s="12"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
@@ -9331,9 +9488,11 @@
     </row>
     <row r="152" spans="1:33" ht="15">
       <c r="A152" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B152" s="47"/>
+        <v>112</v>
+      </c>
+      <c r="B152" s="46">
+        <v>20</v>
+      </c>
       <c r="C152" s="12"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
@@ -9367,10 +9526,12 @@
       <c r="AG152" s="9"/>
     </row>
     <row r="153" spans="1:33" ht="15">
-      <c r="A153" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B153" s="47"/>
+      <c r="A153" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B153" s="46">
+        <v>15</v>
+      </c>
       <c r="C153" s="12"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
@@ -9404,10 +9565,12 @@
       <c r="AG153" s="9"/>
     </row>
     <row r="154" spans="1:33" ht="15">
-      <c r="A154" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B154" s="47"/>
+      <c r="A154" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154" s="46">
+        <v>15</v>
+      </c>
       <c r="C154" s="12"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
@@ -9442,9 +9605,11 @@
     </row>
     <row r="155" spans="1:33" ht="15">
       <c r="A155" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B155" s="47"/>
+        <v>116</v>
+      </c>
+      <c r="B155" s="46">
+        <v>15</v>
+      </c>
       <c r="C155" s="12"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
@@ -9478,10 +9643,12 @@
       <c r="AG155" s="9"/>
     </row>
     <row r="156" spans="1:33" ht="15">
-      <c r="A156" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B156" s="47"/>
+      <c r="A156" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156" s="46">
+        <v>20</v>
+      </c>
       <c r="C156" s="12"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
@@ -9515,10 +9682,12 @@
       <c r="AG156" s="9"/>
     </row>
     <row r="157" spans="1:33" ht="15">
-      <c r="A157" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B157" s="47"/>
+      <c r="A157" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="46">
+        <v>15</v>
+      </c>
       <c r="C157" s="12"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
@@ -9552,10 +9721,12 @@
       <c r="AG157" s="9"/>
     </row>
     <row r="158" spans="1:33" ht="15">
-      <c r="A158" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B158" s="47"/>
+      <c r="A158" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="46">
+        <v>15</v>
+      </c>
       <c r="C158" s="12"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
@@ -9589,10 +9760,12 @@
       <c r="AG158" s="9"/>
     </row>
     <row r="159" spans="1:33" ht="15">
-      <c r="A159" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="47"/>
+      <c r="A159" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" s="46">
+        <v>15</v>
+      </c>
       <c r="C159" s="12"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
@@ -9626,10 +9799,12 @@
       <c r="AG159" s="9"/>
     </row>
     <row r="160" spans="1:33" ht="15">
-      <c r="A160" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="47"/>
+      <c r="A160" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B160" s="46">
+        <v>15</v>
+      </c>
       <c r="C160" s="12"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
@@ -9663,10 +9838,12 @@
       <c r="AG160" s="9"/>
     </row>
     <row r="161" spans="1:33" ht="15">
-      <c r="A161" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B161" s="47"/>
+      <c r="A161" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" s="46">
+        <v>15</v>
+      </c>
       <c r="C161" s="12"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -9700,10 +9877,12 @@
       <c r="AG161" s="9"/>
     </row>
     <row r="162" spans="1:33" ht="15">
-      <c r="A162" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B162" s="47"/>
+      <c r="A162" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="46">
+        <v>15</v>
+      </c>
       <c r="C162" s="12"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
@@ -9737,10 +9916,12 @@
       <c r="AG162" s="9"/>
     </row>
     <row r="163" spans="1:33" ht="15">
-      <c r="A163" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="47"/>
+      <c r="A163" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B163" s="46">
+        <v>15</v>
+      </c>
       <c r="C163" s="12"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -9774,10 +9955,12 @@
       <c r="AG163" s="9"/>
     </row>
     <row r="164" spans="1:33" ht="15">
-      <c r="A164" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="47"/>
+      <c r="A164" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B164" s="46">
+        <v>20</v>
+      </c>
       <c r="C164" s="12"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
@@ -9811,12 +9994,10 @@
       <c r="AG164" s="9"/>
     </row>
     <row r="165" spans="1:33" ht="15.75">
-      <c r="A165" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A165" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B165" s="46"/>
       <c r="C165" s="12" t="s">
         <v>39</v>
       </c>
@@ -9908,10 +10089,12 @@
       <c r="AG165" s="9"/>
     </row>
     <row r="166" spans="1:33" ht="15">
-      <c r="A166" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B166" s="47"/>
+      <c r="A166" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="46">
+        <v>20</v>
+      </c>
       <c r="C166" s="12"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
@@ -9945,10 +10128,12 @@
       <c r="AG166" s="9"/>
     </row>
     <row r="167" spans="1:33" ht="15">
-      <c r="A167" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B167" s="47"/>
+      <c r="A167" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="46">
+        <v>15</v>
+      </c>
       <c r="C167" s="12"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
@@ -9982,10 +10167,12 @@
       <c r="AG167" s="9"/>
     </row>
     <row r="168" spans="1:33" ht="15">
-      <c r="A168" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B168" s="47"/>
+      <c r="A168" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="46">
+        <v>15</v>
+      </c>
       <c r="C168" s="12"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
@@ -10019,10 +10206,12 @@
       <c r="AG168" s="9"/>
     </row>
     <row r="169" spans="1:33" ht="15">
-      <c r="A169" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B169" s="47"/>
+      <c r="A169" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B169" s="46">
+        <v>15</v>
+      </c>
       <c r="C169" s="12"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
@@ -10056,8 +10245,10 @@
       <c r="AG169" s="9"/>
     </row>
     <row r="170" spans="1:33" ht="15.75">
-      <c r="A170" s="50"/>
-      <c r="B170" s="47"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="46">
+        <v>15</v>
+      </c>
       <c r="C170" s="12"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
@@ -10091,12 +10282,10 @@
       <c r="AG170" s="9"/>
     </row>
     <row r="171" spans="1:33" ht="15.75">
-      <c r="A171" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B171" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A171" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B171" s="46"/>
       <c r="C171" s="12" t="s">
         <v>41</v>
       </c>
@@ -10188,10 +10377,12 @@
       <c r="AG171" s="9"/>
     </row>
     <row r="172" spans="1:33" ht="15">
-      <c r="A172" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B172" s="47"/>
+      <c r="A172" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172" s="46">
+        <v>20</v>
+      </c>
       <c r="C172" s="12"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -10225,10 +10416,12 @@
       <c r="AG172" s="9"/>
     </row>
     <row r="173" spans="1:33" ht="15">
-      <c r="A173" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B173" s="47"/>
+      <c r="A173" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B173" s="46">
+        <v>15</v>
+      </c>
       <c r="C173" s="12"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
@@ -10262,10 +10455,12 @@
       <c r="AG173" s="9"/>
     </row>
     <row r="174" spans="1:33" ht="15">
-      <c r="A174" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B174" s="47"/>
+      <c r="A174" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" s="46">
+        <v>15</v>
+      </c>
       <c r="C174" s="12"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
@@ -10299,10 +10494,12 @@
       <c r="AG174" s="9"/>
     </row>
     <row r="175" spans="1:33" ht="15">
-      <c r="A175" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B175" s="47"/>
+      <c r="A175" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B175" s="46">
+        <v>15</v>
+      </c>
       <c r="C175" s="12"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
@@ -10336,8 +10533,8 @@
       <c r="AG175" s="9"/>
     </row>
     <row r="176" spans="1:33" ht="15.75">
-      <c r="A176" s="50"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="49"/>
+      <c r="B176" s="46"/>
       <c r="C176" s="12"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
@@ -10371,107 +10568,107 @@
       <c r="AG176" s="9"/>
     </row>
     <row r="177" spans="1:33" ht="15.75">
-      <c r="A177" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B177" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="A177" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177" s="46"/>
       <c r="C177" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D177" s="61">
-        <v>5</v>
-      </c>
-      <c r="E177" s="61">
+      <c r="D177" s="60">
+        <v>5</v>
+      </c>
+      <c r="E177" s="60">
         <v>6</v>
       </c>
-      <c r="F177" s="49"/>
-      <c r="G177" s="49">
-        <v>0</v>
-      </c>
-      <c r="H177" s="49">
-        <v>0</v>
-      </c>
-      <c r="I177" s="49">
-        <v>0</v>
-      </c>
-      <c r="J177" s="49">
-        <v>0</v>
-      </c>
-      <c r="K177" s="49">
-        <v>0</v>
-      </c>
-      <c r="L177" s="49">
-        <v>0</v>
-      </c>
-      <c r="M177" s="49">
-        <v>0</v>
-      </c>
-      <c r="N177" s="49">
-        <v>0</v>
-      </c>
-      <c r="O177" s="49">
-        <v>25</v>
-      </c>
-      <c r="P177" s="49">
-        <v>10</v>
-      </c>
-      <c r="Q177" s="49">
-        <v>5</v>
-      </c>
-      <c r="R177" s="49">
-        <v>5</v>
-      </c>
-      <c r="S177" s="49">
-        <v>5</v>
-      </c>
-      <c r="T177" s="49">
-        <v>20</v>
-      </c>
-      <c r="U177" s="49">
-        <v>20</v>
-      </c>
-      <c r="V177" s="49">
-        <v>20</v>
-      </c>
-      <c r="W177" s="49">
-        <v>0</v>
-      </c>
-      <c r="X177" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y177" s="49">
-        <v>10</v>
-      </c>
-      <c r="Z177" s="49">
-        <v>10</v>
-      </c>
-      <c r="AA177" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB177" s="49">
-        <v>10</v>
-      </c>
-      <c r="AC177" s="49">
-        <v>10</v>
-      </c>
-      <c r="AD177" s="49">
-        <v>10</v>
-      </c>
-      <c r="AE177" s="49">
-        <v>10</v>
-      </c>
-      <c r="AF177" s="49">
+      <c r="F177" s="48"/>
+      <c r="G177" s="48">
+        <v>0</v>
+      </c>
+      <c r="H177" s="48">
+        <v>0</v>
+      </c>
+      <c r="I177" s="48">
+        <v>0</v>
+      </c>
+      <c r="J177" s="48">
+        <v>0</v>
+      </c>
+      <c r="K177" s="48">
+        <v>0</v>
+      </c>
+      <c r="L177" s="48">
+        <v>0</v>
+      </c>
+      <c r="M177" s="48">
+        <v>0</v>
+      </c>
+      <c r="N177" s="48">
+        <v>0</v>
+      </c>
+      <c r="O177" s="48">
+        <v>25</v>
+      </c>
+      <c r="P177" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q177" s="48">
+        <v>5</v>
+      </c>
+      <c r="R177" s="48">
+        <v>5</v>
+      </c>
+      <c r="S177" s="48">
+        <v>5</v>
+      </c>
+      <c r="T177" s="48">
+        <v>20</v>
+      </c>
+      <c r="U177" s="48">
+        <v>20</v>
+      </c>
+      <c r="V177" s="48">
+        <v>20</v>
+      </c>
+      <c r="W177" s="48">
+        <v>0</v>
+      </c>
+      <c r="X177" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="48">
+        <v>10</v>
+      </c>
+      <c r="Z177" s="48">
+        <v>10</v>
+      </c>
+      <c r="AA177" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="48">
+        <v>10</v>
+      </c>
+      <c r="AC177" s="48">
+        <v>10</v>
+      </c>
+      <c r="AD177" s="48">
+        <v>10</v>
+      </c>
+      <c r="AE177" s="48">
+        <v>10</v>
+      </c>
+      <c r="AF177" s="48">
         <v>10</v>
       </c>
       <c r="AG177" s="9"/>
     </row>
     <row r="178" spans="1:33" ht="15">
-      <c r="A178" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B178" s="47"/>
+      <c r="A178" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B178" s="46">
+        <v>15</v>
+      </c>
       <c r="C178" s="12"/>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
@@ -10505,10 +10702,12 @@
       <c r="AG178" s="9"/>
     </row>
     <row r="179" spans="1:33" ht="15">
-      <c r="A179" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B179" s="47"/>
+      <c r="A179" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B179" s="46">
+        <v>15</v>
+      </c>
       <c r="C179" s="12"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
@@ -10542,10 +10741,12 @@
       <c r="AG179" s="9"/>
     </row>
     <row r="180" spans="1:33" ht="15">
-      <c r="A180" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B180" s="47"/>
+      <c r="A180" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B180" s="46">
+        <v>15</v>
+      </c>
       <c r="C180" s="12"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
@@ -10579,10 +10780,12 @@
       <c r="AG180" s="9"/>
     </row>
     <row r="181" spans="1:33" ht="15">
-      <c r="A181" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B181" s="47"/>
+      <c r="A181" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B181" s="46">
+        <v>15</v>
+      </c>
       <c r="C181" s="12"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
@@ -10616,10 +10819,12 @@
       <c r="AG181" s="9"/>
     </row>
     <row r="182" spans="1:33" ht="15">
-      <c r="A182" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B182" s="47"/>
+      <c r="A182" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B182" s="46">
+        <v>15</v>
+      </c>
       <c r="C182" s="12"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
@@ -10653,10 +10858,12 @@
       <c r="AG182" s="9"/>
     </row>
     <row r="183" spans="1:33" ht="15">
-      <c r="A183" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B183" s="47"/>
+      <c r="A183" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B183" s="46">
+        <v>15</v>
+      </c>
       <c r="C183" s="12"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
@@ -10690,10 +10897,12 @@
       <c r="AG183" s="9"/>
     </row>
     <row r="184" spans="1:33" ht="15">
-      <c r="A184" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B184" s="47"/>
+      <c r="A184" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" s="46">
+        <v>15</v>
+      </c>
       <c r="C184" s="12"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
@@ -10727,10 +10936,12 @@
       <c r="AG184" s="9"/>
     </row>
     <row r="185" spans="1:33" ht="15">
-      <c r="A185" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B185" s="47"/>
+      <c r="A185" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" s="46">
+        <v>15</v>
+      </c>
       <c r="C185" s="12"/>
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
@@ -10764,10 +10975,12 @@
       <c r="AG185" s="9"/>
     </row>
     <row r="186" spans="1:33" ht="15">
-      <c r="A186" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B186" s="47"/>
+      <c r="A186" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="46">
+        <v>15</v>
+      </c>
       <c r="C186" s="12"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
@@ -10801,10 +11014,12 @@
       <c r="AG186" s="9"/>
     </row>
     <row r="187" spans="1:33" ht="15">
-      <c r="A187" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B187" s="47"/>
+      <c r="A187" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B187" s="46">
+        <v>20</v>
+      </c>
       <c r="C187" s="12"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
@@ -10838,10 +11053,12 @@
       <c r="AG187" s="9"/>
     </row>
     <row r="188" spans="1:33" ht="15">
-      <c r="A188" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B188" s="47"/>
+      <c r="A188" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B188" s="46">
+        <v>15</v>
+      </c>
       <c r="C188" s="12"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
@@ -10875,10 +11092,12 @@
       <c r="AG188" s="9"/>
     </row>
     <row r="189" spans="1:33" ht="15">
-      <c r="A189" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B189" s="47"/>
+      <c r="A189" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B189" s="46">
+        <v>15</v>
+      </c>
       <c r="C189" s="12"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
@@ -10912,10 +11131,12 @@
       <c r="AG189" s="9"/>
     </row>
     <row r="190" spans="1:33" ht="15">
-      <c r="A190" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B190" s="47"/>
+      <c r="A190" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="46">
+        <v>15</v>
+      </c>
       <c r="C190" s="12"/>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
@@ -10949,10 +11170,12 @@
       <c r="AG190" s="9"/>
     </row>
     <row r="191" spans="1:33" ht="15">
-      <c r="A191" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B191" s="47"/>
+      <c r="A191" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B191" s="46">
+        <v>20</v>
+      </c>
       <c r="C191" s="12"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
@@ -10986,10 +11209,12 @@
       <c r="AG191" s="9"/>
     </row>
     <row r="192" spans="1:33" ht="15">
-      <c r="A192" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B192" s="47"/>
+      <c r="A192" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B192" s="46">
+        <v>15</v>
+      </c>
       <c r="C192" s="12"/>
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
@@ -11023,10 +11248,12 @@
       <c r="AG192" s="9"/>
     </row>
     <row r="193" spans="1:33" ht="15">
-      <c r="A193" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B193" s="47"/>
+      <c r="A193" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B193" s="46">
+        <v>15</v>
+      </c>
       <c r="C193" s="12"/>
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
@@ -11060,10 +11287,12 @@
       <c r="AG193" s="9"/>
     </row>
     <row r="194" spans="1:33" ht="15">
-      <c r="A194" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="B194" s="47"/>
+      <c r="A194" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B194" s="46">
+        <v>15</v>
+      </c>
       <c r="C194" s="12"/>
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
@@ -11097,10 +11326,12 @@
       <c r="AG194" s="9"/>
     </row>
     <row r="195" spans="1:33" ht="15">
-      <c r="A195" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B195" s="47"/>
+      <c r="A195" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B195" s="46">
+        <v>15</v>
+      </c>
       <c r="C195" s="12"/>
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
@@ -11134,10 +11365,12 @@
       <c r="AG195" s="9"/>
     </row>
     <row r="196" spans="1:33" ht="15">
-      <c r="A196" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B196" s="47"/>
+      <c r="A196" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B196" s="46">
+        <v>15</v>
+      </c>
       <c r="C196" s="12"/>
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
@@ -11171,10 +11404,12 @@
       <c r="AG196" s="9"/>
     </row>
     <row r="197" spans="1:33" ht="15">
-      <c r="A197" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B197" s="47"/>
+      <c r="A197" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197" s="46">
+        <v>15</v>
+      </c>
       <c r="C197" s="12"/>
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
@@ -11208,10 +11443,12 @@
       <c r="AG197" s="9"/>
     </row>
     <row r="198" spans="1:33" ht="15">
-      <c r="A198" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B198" s="47"/>
+      <c r="A198" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" s="46">
+        <v>15</v>
+      </c>
       <c r="C198" s="12"/>
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
@@ -11245,10 +11482,12 @@
       <c r="AG198" s="9"/>
     </row>
     <row r="199" spans="1:33" ht="15">
-      <c r="A199" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B199" s="47"/>
+      <c r="A199" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B199" s="46">
+        <v>20</v>
+      </c>
       <c r="C199" s="12"/>
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
@@ -11283,7 +11522,7 @@
     </row>
     <row r="200" spans="1:33" ht="15">
       <c r="A200" s="12"/>
-      <c r="B200" s="47"/>
+      <c r="B200" s="46"/>
       <c r="C200" s="12"/>
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
@@ -11317,11 +11556,11 @@
       <c r="AG200" s="9"/>
     </row>
     <row r="201" spans="1:33" ht="15">
-      <c r="A201" s="48" t="s">
+      <c r="A201" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B201" s="47" t="s">
-        <v>141</v>
+      <c r="B201" s="46">
+        <v>15</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>36</v>
@@ -11414,11 +11653,11 @@
       <c r="AG201" s="9"/>
     </row>
     <row r="202" spans="1:33" ht="15">
-      <c r="A202" s="49" t="s">
+      <c r="A202" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B202" s="47" t="s">
-        <v>141</v>
+      <c r="B202" s="46">
+        <v>15</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>36</v>
@@ -11511,11 +11750,11 @@
       <c r="AG202" s="9"/>
     </row>
     <row r="203" spans="1:33" ht="14.25">
-      <c r="A203" s="49" t="s">
+      <c r="A203" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B203" s="47" t="s">
-        <v>141</v>
+      <c r="B203" s="46">
+        <v>15</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>39</v>
@@ -11608,11 +11847,11 @@
       <c r="AG203" s="9"/>
     </row>
     <row r="204" spans="1:33" ht="14.25">
-      <c r="A204" s="49" t="s">
+      <c r="A204" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B204" s="47" t="s">
-        <v>141</v>
+      <c r="B204" s="46">
+        <v>15</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>40</v>
@@ -11705,11 +11944,11 @@
       <c r="AG204" s="9"/>
     </row>
     <row r="205" spans="1:33" ht="14.25">
-      <c r="A205" s="49" t="s">
+      <c r="A205" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B205" s="47" t="s">
-        <v>141</v>
+      <c r="B205" s="46">
+        <v>15</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>53</v>
@@ -11893,11 +12132,11 @@
       <c r="AG206" s="9"/>
     </row>
     <row r="207" spans="1:33" ht="14.25">
-      <c r="A207" s="49" t="s">
+      <c r="A207" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B207" s="47" t="s">
-        <v>141</v>
+      <c r="B207" s="46">
+        <v>15</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>40</v>
@@ -11990,11 +12229,11 @@
       <c r="AG207" s="9"/>
     </row>
     <row r="208" spans="1:33" ht="14.25">
-      <c r="A208" s="49" t="s">
+      <c r="A208" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B208" s="47" t="s">
-        <v>141</v>
+      <c r="B208" s="46">
+        <v>15</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>36</v>
@@ -12087,11 +12326,11 @@
       <c r="AG208" s="9"/>
     </row>
     <row r="209" spans="1:33" ht="14.25">
-      <c r="A209" s="49" t="s">
+      <c r="A209" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B209" s="47" t="s">
-        <v>141</v>
+      <c r="B209" s="46">
+        <v>15</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>36</v>
@@ -12186,11 +12425,11 @@
       <c r="AG209" s="9"/>
     </row>
     <row r="210" spans="1:33" ht="14.25">
-      <c r="A210" s="49" t="s">
+      <c r="A210" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B210" s="47" t="s">
-        <v>141</v>
+      <c r="B210" s="46">
+        <v>15</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>49</v>
@@ -12285,12 +12524,10 @@
       <c r="AG210" s="9"/>
     </row>
     <row r="211" spans="1:33" ht="15.75">
-      <c r="A211" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B211" s="63" t="s">
-        <v>142</v>
-      </c>
+      <c r="A211" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B211" s="62"/>
       <c r="C211" s="2" t="s">
         <v>36</v>
       </c>
@@ -12378,10 +12615,12 @@
       <c r="AG211" s="9"/>
     </row>
     <row r="212" spans="1:33" ht="15">
-      <c r="A212" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B212" s="63"/>
+      <c r="A212" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B212" s="62">
+        <v>19</v>
+      </c>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12415,10 +12654,12 @@
       <c r="AG212" s="9"/>
     </row>
     <row r="213" spans="1:33" ht="15">
-      <c r="A213" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B213" s="63"/>
+      <c r="A213" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B213" s="62">
+        <v>19</v>
+      </c>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12452,10 +12693,12 @@
       <c r="AG213" s="9"/>
     </row>
     <row r="214" spans="1:33" ht="15">
-      <c r="A214" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B214" s="63"/>
+      <c r="A214" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B214" s="62">
+        <v>19</v>
+      </c>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12489,10 +12732,12 @@
       <c r="AG214" s="9"/>
     </row>
     <row r="215" spans="1:33" ht="15">
-      <c r="A215" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B215" s="63"/>
+      <c r="A215" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B215" s="62">
+        <v>19</v>
+      </c>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12526,10 +12771,12 @@
       <c r="AG215" s="9"/>
     </row>
     <row r="216" spans="1:33" ht="15">
-      <c r="A216" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="B216" s="63"/>
+      <c r="A216" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B216" s="62">
+        <v>19</v>
+      </c>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -12563,10 +12810,12 @@
       <c r="AG216" s="9"/>
     </row>
     <row r="217" spans="1:33" ht="15">
-      <c r="A217" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B217" s="63"/>
+      <c r="A217" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B217" s="62">
+        <v>19</v>
+      </c>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12600,10 +12849,12 @@
       <c r="AG217" s="9"/>
     </row>
     <row r="218" spans="1:33" ht="15">
-      <c r="A218" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B218" s="63"/>
+      <c r="A218" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B218" s="62">
+        <v>19</v>
+      </c>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12637,10 +12888,12 @@
       <c r="AG218" s="9"/>
     </row>
     <row r="219" spans="1:33" ht="15">
-      <c r="A219" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B219" s="63"/>
+      <c r="A219" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B219" s="62">
+        <v>19</v>
+      </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12674,10 +12927,12 @@
       <c r="AG219" s="9"/>
     </row>
     <row r="220" spans="1:33" ht="15">
-      <c r="A220" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="B220" s="63"/>
+      <c r="A220" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B220" s="62">
+        <v>19</v>
+      </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12711,10 +12966,12 @@
       <c r="AG220" s="9"/>
     </row>
     <row r="221" spans="1:33" ht="15">
-      <c r="A221" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B221" s="63"/>
+      <c r="A221" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B221" s="62">
+        <v>19</v>
+      </c>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12748,10 +13005,12 @@
       <c r="AG221" s="9"/>
     </row>
     <row r="222" spans="1:33" ht="15">
-      <c r="A222" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B222" s="63"/>
+      <c r="A222" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B222" s="62">
+        <v>19</v>
+      </c>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12785,103 +13044,103 @@
       <c r="AG222" s="9"/>
     </row>
     <row r="223" spans="1:33" ht="15.75">
-      <c r="A223" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B223" s="63" t="s">
-        <v>142</v>
-      </c>
+      <c r="A223" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B223" s="62"/>
       <c r="C223" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
-      <c r="F223" s="61"/>
-      <c r="G223" s="49">
-        <v>0</v>
-      </c>
-      <c r="H223" s="49">
-        <v>0</v>
-      </c>
-      <c r="I223" s="49">
-        <v>0</v>
-      </c>
-      <c r="J223" s="49">
-        <v>0</v>
-      </c>
-      <c r="K223" s="49">
-        <v>0</v>
-      </c>
-      <c r="L223" s="49">
-        <v>0</v>
-      </c>
-      <c r="M223" s="49">
-        <v>0</v>
-      </c>
-      <c r="N223" s="49">
-        <v>0</v>
-      </c>
-      <c r="O223" s="49">
-        <v>20</v>
-      </c>
-      <c r="P223" s="49">
-        <v>15</v>
-      </c>
-      <c r="Q223" s="49">
-        <v>5</v>
-      </c>
-      <c r="R223" s="49">
-        <v>5</v>
-      </c>
-      <c r="S223" s="49">
-        <v>5</v>
-      </c>
-      <c r="T223" s="49">
-        <v>20</v>
-      </c>
-      <c r="U223" s="49">
-        <v>20</v>
-      </c>
-      <c r="V223" s="49">
-        <v>20</v>
-      </c>
-      <c r="W223" s="49">
-        <v>0</v>
-      </c>
-      <c r="X223" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y223" s="49">
-        <v>5</v>
-      </c>
-      <c r="Z223" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA223" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB223" s="49">
-        <v>5</v>
-      </c>
-      <c r="AC223" s="49">
-        <v>5</v>
-      </c>
-      <c r="AD223" s="49">
-        <v>5</v>
-      </c>
-      <c r="AE223" s="49">
-        <v>5</v>
-      </c>
-      <c r="AF223" s="49">
+      <c r="F223" s="60"/>
+      <c r="G223" s="48">
+        <v>0</v>
+      </c>
+      <c r="H223" s="48">
+        <v>0</v>
+      </c>
+      <c r="I223" s="48">
+        <v>0</v>
+      </c>
+      <c r="J223" s="48">
+        <v>0</v>
+      </c>
+      <c r="K223" s="48">
+        <v>0</v>
+      </c>
+      <c r="L223" s="48">
+        <v>0</v>
+      </c>
+      <c r="M223" s="48">
+        <v>0</v>
+      </c>
+      <c r="N223" s="48">
+        <v>0</v>
+      </c>
+      <c r="O223" s="48">
+        <v>20</v>
+      </c>
+      <c r="P223" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q223" s="48">
+        <v>5</v>
+      </c>
+      <c r="R223" s="48">
+        <v>5</v>
+      </c>
+      <c r="S223" s="48">
+        <v>5</v>
+      </c>
+      <c r="T223" s="48">
+        <v>20</v>
+      </c>
+      <c r="U223" s="48">
+        <v>20</v>
+      </c>
+      <c r="V223" s="48">
+        <v>20</v>
+      </c>
+      <c r="W223" s="48">
+        <v>0</v>
+      </c>
+      <c r="X223" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="48">
+        <v>5</v>
+      </c>
+      <c r="Z223" s="48">
+        <v>5</v>
+      </c>
+      <c r="AA223" s="48">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC223" s="48">
+        <v>5</v>
+      </c>
+      <c r="AD223" s="48">
+        <v>5</v>
+      </c>
+      <c r="AE223" s="48">
+        <v>5</v>
+      </c>
+      <c r="AF223" s="48">
         <v>5</v>
       </c>
       <c r="AG223" s="9"/>
     </row>
     <row r="224" spans="1:33" ht="15">
-      <c r="A224" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B224" s="20"/>
+      <c r="A224" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" s="62">
+        <v>19</v>
+      </c>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -12915,10 +13174,12 @@
       <c r="AG224" s="9"/>
     </row>
     <row r="225" spans="1:33" ht="15">
-      <c r="A225" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B225" s="20"/>
+      <c r="A225" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B225" s="62">
+        <v>19</v>
+      </c>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -12952,10 +13213,12 @@
       <c r="AG225" s="9"/>
     </row>
     <row r="226" spans="1:33" ht="15">
-      <c r="A226" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B226" s="20"/>
+      <c r="A226" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B226" s="62">
+        <v>19</v>
+      </c>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -12989,10 +13252,12 @@
       <c r="AG226" s="9"/>
     </row>
     <row r="227" spans="1:33" ht="15">
-      <c r="A227" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B227" s="20"/>
+      <c r="A227" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B227" s="62">
+        <v>19</v>
+      </c>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -13026,10 +13291,12 @@
       <c r="AG227" s="9"/>
     </row>
     <row r="228" spans="1:33" ht="15">
-      <c r="A228" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="B228" s="20"/>
+      <c r="A228" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B228" s="62">
+        <v>19</v>
+      </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13063,10 +13330,12 @@
       <c r="AG228" s="9"/>
     </row>
     <row r="229" spans="1:33" ht="15">
-      <c r="A229" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B229" s="20"/>
+      <c r="A229" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B229" s="62">
+        <v>19</v>
+      </c>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -13100,10 +13369,12 @@
       <c r="AG229" s="9"/>
     </row>
     <row r="230" spans="1:33" ht="15">
-      <c r="A230" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B230" s="20"/>
+      <c r="A230" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B230" s="62">
+        <v>19</v>
+      </c>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -13137,10 +13408,12 @@
       <c r="AG230" s="9"/>
     </row>
     <row r="231" spans="1:33" ht="15">
-      <c r="A231" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="B231" s="20"/>
+      <c r="A231" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B231" s="62">
+        <v>19</v>
+      </c>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -13174,10 +13447,12 @@
       <c r="AG231" s="9"/>
     </row>
     <row r="232" spans="1:33" ht="15">
-      <c r="A232" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="B232" s="20"/>
+      <c r="A232" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B232" s="62">
+        <v>19</v>
+      </c>
       <c r="C232" s="2"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13211,10 +13486,12 @@
       <c r="AG232" s="9"/>
     </row>
     <row r="233" spans="1:33" ht="15">
-      <c r="A233" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B233" s="20"/>
+      <c r="A233" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B233" s="62">
+        <v>19</v>
+      </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -13248,10 +13525,9 @@
       <c r="AG233" s="9"/>
     </row>
     <row r="234" spans="1:33" ht="15">
-      <c r="A234" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B234" s="20"/>
+      <c r="A234" s="44" t="s">
+        <v>145</v>
+      </c>
       <c r="C234" s="2"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -13285,8 +13561,10 @@
       <c r="AG234" s="9"/>
     </row>
     <row r="235" spans="1:33" ht="15">
-      <c r="A235" s="45"/>
-      <c r="B235" s="20"/>
+      <c r="A235" s="44"/>
+      <c r="B235" s="62">
+        <v>30</v>
+      </c>
       <c r="C235" s="2"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13323,8 +13601,8 @@
       <c r="A236" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B236" s="41" t="s">
-        <v>155</v>
+      <c r="B236" s="62">
+        <v>30</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>36</v>
@@ -13420,8 +13698,8 @@
       <c r="A237" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B237" s="41" t="s">
-        <v>155</v>
+      <c r="B237" s="62">
+        <v>30</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>66</v>
@@ -13517,8 +13795,8 @@
       <c r="A238" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B238" s="41" t="s">
-        <v>155</v>
+      <c r="B238" s="62">
+        <v>30</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>40</v>
@@ -13614,8 +13892,8 @@
       <c r="A239" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B239" s="41" t="s">
-        <v>155</v>
+      <c r="B239" s="62">
+        <v>30</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>39</v>
@@ -13711,8 +13989,8 @@
       <c r="A240" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B240" s="41" t="s">
-        <v>155</v>
+      <c r="B240" s="62">
+        <v>30</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>39</v>
@@ -13808,8 +14086,8 @@
       <c r="A241" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B241" s="41" t="s">
-        <v>155</v>
+      <c r="B241" s="62">
+        <v>30</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>36</v>
@@ -13905,8 +14183,8 @@
       <c r="A242" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B242" s="41" t="s">
-        <v>155</v>
+      <c r="B242" s="62">
+        <v>30</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>44</v>
@@ -14002,8 +14280,8 @@
       <c r="A243" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B243" s="41" t="s">
-        <v>155</v>
+      <c r="B243" s="62">
+        <v>30</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>44</v>
@@ -14099,8 +14377,8 @@
       <c r="A244" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B244" s="41" t="s">
-        <v>155</v>
+      <c r="B244" s="62">
+        <v>30</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>66</v>
@@ -14196,8 +14474,8 @@
       <c r="A245" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B245" s="41" t="s">
-        <v>155</v>
+      <c r="B245" s="62">
+        <v>30</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>39</v>
@@ -14290,11 +14568,11 @@
       <c r="AG245" s="9"/>
     </row>
     <row r="246" spans="1:33" ht="15.75">
-      <c r="A246" s="67" t="s">
+      <c r="A246" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B246" s="41" t="s">
-        <v>141</v>
+      <c r="B246" s="40">
+        <v>20</v>
       </c>
       <c r="C246" s="8" t="s">
         <v>39</v>
@@ -14389,11 +14667,11 @@
       <c r="AG246" s="9"/>
     </row>
     <row r="247" spans="1:33" ht="15.75">
-      <c r="A247" s="68" t="s">
+      <c r="A247" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B247" s="41" t="s">
-        <v>141</v>
+      <c r="B247" s="40">
+        <v>20</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>39</v>
@@ -14488,11 +14766,11 @@
       <c r="AG247" s="9"/>
     </row>
     <row r="248" spans="1:33" ht="15.75">
-      <c r="A248" s="68" t="s">
+      <c r="A248" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B248" s="41" t="s">
-        <v>141</v>
+      <c r="B248" s="40">
+        <v>20</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>68</v>
@@ -14587,11 +14865,11 @@
       <c r="AG248" s="9"/>
     </row>
     <row r="249" spans="1:33" ht="15.75">
-      <c r="A249" s="68" t="s">
+      <c r="A249" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B249" s="41" t="s">
-        <v>141</v>
+      <c r="B249" s="40">
+        <v>20</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>39</v>
@@ -14686,11 +14964,11 @@
       <c r="AG249" s="9"/>
     </row>
     <row r="250" spans="1:33" ht="15.75">
-      <c r="A250" s="67" t="s">
+      <c r="A250" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B250" s="41" t="s">
-        <v>141</v>
+      <c r="B250" s="40">
+        <v>20</v>
       </c>
       <c r="C250" s="8" t="s">
         <v>39</v>
@@ -14785,11 +15063,11 @@
       <c r="AG250" s="9"/>
     </row>
     <row r="251" spans="1:33" ht="15.75">
-      <c r="A251" s="68" t="s">
+      <c r="A251" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B251" s="41" t="s">
-        <v>141</v>
+      <c r="B251" s="40">
+        <v>20</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>39</v>
@@ -14887,8 +15165,8 @@
       <c r="A252" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B252" s="41" t="s">
-        <v>85</v>
+      <c r="B252" s="40">
+        <v>29</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>44</v>
@@ -14984,8 +15262,8 @@
       <c r="A253" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B253" s="41" t="s">
-        <v>85</v>
+      <c r="B253" s="40">
+        <v>29</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>40</v>
@@ -15081,8 +15359,8 @@
       <c r="A254" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B254" s="41" t="s">
-        <v>85</v>
+      <c r="B254" s="40">
+        <v>29</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>40</v>
@@ -15178,8 +15456,8 @@
       <c r="A255" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B255" s="41" t="s">
-        <v>85</v>
+      <c r="B255" s="40">
+        <v>29</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>58</v>
@@ -15272,11 +15550,11 @@
       <c r="AG255" s="9"/>
     </row>
     <row r="256" spans="1:33" ht="15.75">
-      <c r="A256" s="69" t="s">
+      <c r="A256" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B256" s="73" t="s">
-        <v>156</v>
+      <c r="B256" s="72">
+        <v>22</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>36</v>
@@ -15371,11 +15649,11 @@
       <c r="AG256" s="9"/>
     </row>
     <row r="257" spans="1:33" ht="15.75">
-      <c r="A257" s="69" t="s">
+      <c r="A257" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B257" s="73" t="s">
-        <v>156</v>
+      <c r="B257" s="72">
+        <v>22</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>53</v>
@@ -15470,11 +15748,11 @@
       <c r="AG257" s="9"/>
     </row>
     <row r="258" spans="1:33" ht="15.75">
-      <c r="A258" s="69" t="s">
+      <c r="A258" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B258" s="73" t="s">
-        <v>156</v>
+      <c r="B258" s="72">
+        <v>22</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>36</v>
@@ -15569,11 +15847,11 @@
       <c r="AG258" s="9"/>
     </row>
     <row r="259" spans="1:33" ht="15.75">
-      <c r="A259" s="70" t="s">
+      <c r="A259" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B259" s="74" t="s">
-        <v>157</v>
+      <c r="B259" s="73">
+        <v>23</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>36</v>
@@ -15668,11 +15946,11 @@
       <c r="AG259" s="9"/>
     </row>
     <row r="260" spans="1:33" ht="15.75">
-      <c r="A260" s="70" t="s">
+      <c r="A260" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B260" s="74" t="s">
-        <v>157</v>
+      <c r="B260" s="73">
+        <v>23</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>39</v>
@@ -15767,11 +16045,11 @@
       <c r="AG260" s="9"/>
     </row>
     <row r="261" spans="1:33" ht="15.75">
-      <c r="A261" s="70" t="s">
+      <c r="A261" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="B261" s="74" t="s">
-        <v>157</v>
+      <c r="B261" s="73">
+        <v>23</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>68</v>
@@ -15869,8 +16147,8 @@
       <c r="A262" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B262" s="74" t="s">
-        <v>157</v>
+      <c r="B262" s="73">
+        <v>23</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>39</v>
@@ -15965,11 +16243,11 @@
       <c r="AG262" s="9"/>
     </row>
     <row r="263" spans="1:33" ht="15.75">
-      <c r="A263" s="71" t="s">
+      <c r="A263" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B263" s="74" t="s">
-        <v>157</v>
+      <c r="B263" s="73">
+        <v>22</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>58</v>
@@ -16064,11 +16342,11 @@
       <c r="AG263" s="9"/>
     </row>
     <row r="264" spans="1:33" ht="15.75">
-      <c r="A264" s="72" t="s">
+      <c r="A264" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B264" s="74" t="s">
-        <v>157</v>
+      <c r="B264" s="73">
+        <v>22</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>39</v>
@@ -16166,8 +16444,8 @@
       <c r="A265" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B265" s="41" t="s">
-        <v>156</v>
+      <c r="B265" s="40">
+        <v>22</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>36</v>
